--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C37D3B8-ACC6-45F0-A082-18DC0A0F9A40}"/>
   <bookViews>
-    <workbookView xWindow="2235" yWindow="-12600" windowWidth="18675" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11205" yWindow="-10710" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -313,6 +313,12 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -321,12 +327,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -662,33 +662,33 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="13"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
       <c r="B3" s="8">
         <f ca="1">TODAY()</f>
-        <v>45166</v>
+        <v>45168</v>
       </c>
       <c r="C3" s="10">
         <v>45108</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="14"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="14"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -702,10 +702,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -723,8 +723,8 @@
         <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45108</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -738,8 +738,8 @@
         <f t="shared" ref="B8:B37" si="0">B7+1</f>
         <v>45109</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -751,8 +751,8 @@
         <f t="shared" si="0"/>
         <v>45110</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -764,8 +764,8 @@
         <f t="shared" si="0"/>
         <v>45111</v>
       </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -777,8 +777,8 @@
         <f t="shared" si="0"/>
         <v>45112</v>
       </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -790,8 +790,8 @@
         <f t="shared" si="0"/>
         <v>45113</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -803,8 +803,8 @@
         <f t="shared" si="0"/>
         <v>45114</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -816,8 +816,8 @@
         <f t="shared" si="0"/>
         <v>45115</v>
       </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -829,8 +829,8 @@
         <f t="shared" si="0"/>
         <v>45116</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -842,8 +842,8 @@
         <f t="shared" si="0"/>
         <v>45117</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -855,8 +855,8 @@
         <f t="shared" si="0"/>
         <v>45118</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -868,8 +868,8 @@
         <f t="shared" si="0"/>
         <v>45119</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -881,8 +881,8 @@
         <f t="shared" si="0"/>
         <v>45120</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -893,8 +893,8 @@
         <f t="shared" si="0"/>
         <v>45121</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -905,8 +905,8 @@
         <f t="shared" si="0"/>
         <v>45122</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -917,8 +917,8 @@
         <f t="shared" si="0"/>
         <v>45123</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
@@ -927,8 +927,8 @@
         <f t="shared" si="0"/>
         <v>45124</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
@@ -937,8 +937,8 @@
         <f t="shared" si="0"/>
         <v>45125</v>
       </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
@@ -947,8 +947,8 @@
         <f t="shared" si="0"/>
         <v>45126</v>
       </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
@@ -957,8 +957,8 @@
         <f t="shared" si="0"/>
         <v>45127</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
@@ -967,8 +967,8 @@
         <f t="shared" si="0"/>
         <v>45128</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
@@ -977,8 +977,8 @@
         <f t="shared" si="0"/>
         <v>45129</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
@@ -987,8 +987,8 @@
         <f t="shared" si="0"/>
         <v>45130</v>
       </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
@@ -997,8 +997,8 @@
         <f t="shared" si="0"/>
         <v>45131</v>
       </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
@@ -1007,8 +1007,8 @@
         <f t="shared" si="0"/>
         <v>45132</v>
       </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
@@ -1017,8 +1017,8 @@
         <f t="shared" si="0"/>
         <v>45133</v>
       </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
@@ -1027,8 +1027,8 @@
         <f t="shared" si="0"/>
         <v>45134</v>
       </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
@@ -1037,8 +1037,8 @@
         <f t="shared" si="0"/>
         <v>45135</v>
       </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
@@ -1047,8 +1047,8 @@
         <f t="shared" si="0"/>
         <v>45136</v>
       </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
@@ -1057,8 +1057,8 @@
         <f t="shared" si="0"/>
         <v>45137</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
@@ -1067,48 +1067,48 @@
         <f t="shared" si="0"/>
         <v>45138</v>
       </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1132,8 +1132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{4B61595E-0943-4C91-ABA5-85F52610468E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C37D3B8-ACC6-45F0-A082-18DC0A0F9A40}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D0D7F-C2AB-4750-A409-0576981A83EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11205" yWindow="-10710" windowWidth="18675" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -313,20 +313,20 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -360,10 +360,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -662,10 +658,10 @@
       <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="13"/>
+      <c r="E2" s="11"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
@@ -673,22 +669,20 @@
         <f ca="1">TODAY()</f>
         <v>45168</v>
       </c>
-      <c r="C3" s="10">
-        <v>45108</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="14"/>
+      <c r="E3" s="12"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
       <c r="B4" s="8"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="14"/>
+      <c r="E4" s="12"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
@@ -702,10 +696,10 @@
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15"/>
+      <c r="D6" s="13"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -720,11 +714,11 @@
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
       <c r="B7" s="7">
-        <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
-        <v>45108</v>
-      </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
+        <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
+        <v>45139</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
       <c r="E7" s="4"/>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -735,11 +729,11 @@
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
       <c r="B8" s="7">
-        <f t="shared" ref="B8:B37" si="0">B7+1</f>
-        <v>45109</v>
-      </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
+        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
+        <v>45140</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -748,11 +742,11 @@
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
       <c r="B9" s="7">
-        <f t="shared" si="0"/>
-        <v>45110</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45141</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -761,11 +755,11 @@
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
       <c r="B10" s="7">
-        <f t="shared" si="0"/>
-        <v>45111</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45142</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -774,11 +768,11 @@
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
       <c r="B11" s="7">
-        <f t="shared" si="0"/>
-        <v>45112</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45143</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -787,11 +781,11 @@
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
       <c r="B12" s="7">
-        <f t="shared" si="0"/>
-        <v>45113</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45144</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -800,11 +794,11 @@
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
       <c r="B13" s="7">
-        <f t="shared" si="0"/>
-        <v>45114</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45145</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -813,11 +807,11 @@
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
       <c r="B14" s="7">
-        <f t="shared" si="0"/>
-        <v>45115</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45146</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -826,11 +820,11 @@
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
       <c r="B15" s="7">
-        <f t="shared" si="0"/>
-        <v>45116</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45147</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -839,11 +833,11 @@
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
       <c r="B16" s="7">
-        <f t="shared" si="0"/>
-        <v>45117</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45148</v>
+      </c>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -852,11 +846,11 @@
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
       <c r="B17" s="7">
-        <f t="shared" si="0"/>
-        <v>45118</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45149</v>
+      </c>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -865,11 +859,11 @@
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
       <c r="B18" s="7">
-        <f t="shared" si="0"/>
-        <v>45119</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45150</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -878,11 +872,11 @@
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
       <c r="B19" s="7">
-        <f t="shared" si="0"/>
-        <v>45120</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45151</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -890,11 +884,11 @@
     </row>
     <row r="20" spans="1:8">
       <c r="B20" s="7">
-        <f t="shared" si="0"/>
-        <v>45121</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45152</v>
+      </c>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -902,11 +896,11 @@
     </row>
     <row r="21" spans="1:8">
       <c r="B21" s="7">
-        <f t="shared" si="0"/>
-        <v>45122</v>
-      </c>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45153</v>
+      </c>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -914,201 +908,201 @@
     </row>
     <row r="22" spans="1:8">
       <c r="B22" s="7">
-        <f t="shared" si="0"/>
-        <v>45123</v>
-      </c>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45154</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:8">
       <c r="B23" s="7">
-        <f t="shared" si="0"/>
-        <v>45124</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45155</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:8">
       <c r="B24" s="7">
-        <f t="shared" si="0"/>
-        <v>45125</v>
-      </c>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45156</v>
+      </c>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:8">
       <c r="B25" s="7">
-        <f t="shared" si="0"/>
-        <v>45126</v>
-      </c>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45157</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:8">
       <c r="B26" s="7">
-        <f t="shared" si="0"/>
-        <v>45127</v>
-      </c>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45158</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:8">
       <c r="B27" s="7">
-        <f t="shared" si="0"/>
-        <v>45128</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45159</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="7">
-        <f t="shared" si="0"/>
-        <v>45129</v>
-      </c>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45160</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:8">
       <c r="B29" s="7">
-        <f t="shared" si="0"/>
-        <v>45130</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45161</v>
+      </c>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
     </row>
     <row r="30" spans="1:8">
       <c r="B30" s="7">
-        <f t="shared" si="0"/>
-        <v>45131</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45162</v>
+      </c>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
     </row>
     <row r="31" spans="1:8">
       <c r="B31" s="7">
-        <f t="shared" si="0"/>
-        <v>45132</v>
-      </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45163</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
     <row r="32" spans="1:8">
       <c r="B32" s="7">
-        <f t="shared" si="0"/>
-        <v>45133</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45164</v>
+      </c>
+      <c r="C32" s="15"/>
+      <c r="D32" s="15"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
     </row>
     <row r="33" spans="2:6">
       <c r="B33" s="7">
-        <f t="shared" si="0"/>
-        <v>45134</v>
-      </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45165</v>
+      </c>
+      <c r="C33" s="15"/>
+      <c r="D33" s="15"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="2:6">
       <c r="B34" s="7">
-        <f t="shared" si="0"/>
-        <v>45135</v>
-      </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45166</v>
+      </c>
+      <c r="C34" s="15"/>
+      <c r="D34" s="15"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
     </row>
     <row r="35" spans="2:6">
       <c r="B35" s="7">
-        <f t="shared" si="0"/>
-        <v>45136</v>
-      </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45167</v>
+      </c>
+      <c r="C35" s="15"/>
+      <c r="D35" s="15"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
     </row>
     <row r="36" spans="2:6">
       <c r="B36" s="7">
-        <f t="shared" si="0"/>
-        <v>45137</v>
-      </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45168</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="2:6">
       <c r="B37" s="7">
-        <f t="shared" si="0"/>
-        <v>45138</v>
-      </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="11"/>
+        <f t="shared" ca="1" si="0"/>
+        <v>45169</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1132,7 +1126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{835D0D7F-C2AB-4750-A409-0576981A83EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C28F23-EE33-4036-A78D-639E8E07CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -287,6 +287,21 @@
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -312,21 +327,6 @@
     </xf>
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -628,7 +628,7 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -651,420 +651,422 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="11"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13">
         <f ca="1">TODAY()</f>
-        <v>45168</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="12" t="s">
+        <v>45169</v>
+      </c>
+      <c r="C3" s="15">
+        <v>45108</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="12"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="12" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="12"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="7">
-        <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
-        <v>45139</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="1"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="12">
+        <f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
+        <v>45108</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="6"/>
       <c r="I7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="7">
-        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
-        <v>45140</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="12">
+        <f t="shared" ref="B8:B37" si="0">B7+1</f>
+        <v>45109</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45141</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="A9" s="6"/>
+      <c r="B9" s="12">
+        <f t="shared" si="0"/>
+        <v>45110</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45142</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="12">
+        <f t="shared" si="0"/>
+        <v>45111</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45143</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="12">
+        <f t="shared" si="0"/>
+        <v>45112</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45144</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="12">
+        <f t="shared" si="0"/>
+        <v>45113</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45145</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="12">
+        <f t="shared" si="0"/>
+        <v>45114</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45146</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="12">
+        <f t="shared" si="0"/>
+        <v>45115</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45147</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="12">
+        <f t="shared" si="0"/>
+        <v>45116</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45148</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="12">
+        <f t="shared" si="0"/>
+        <v>45117</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45149</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="12">
+        <f t="shared" si="0"/>
+        <v>45118</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45150</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="12">
+        <f t="shared" si="0"/>
+        <v>45119</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45151</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="12">
+        <f t="shared" si="0"/>
+        <v>45120</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45152</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="B20" s="12">
+        <f t="shared" si="0"/>
+        <v>45121</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45153</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="B21" s="12">
+        <f t="shared" si="0"/>
+        <v>45122</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45154</v>
-      </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B22" s="12">
+        <f t="shared" si="0"/>
+        <v>45123</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45155</v>
-      </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="B23" s="12">
+        <f t="shared" si="0"/>
+        <v>45124</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45156</v>
-      </c>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="B24" s="12">
+        <f t="shared" si="0"/>
+        <v>45125</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45157</v>
-      </c>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="12">
+        <f t="shared" si="0"/>
+        <v>45126</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45158</v>
-      </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="12">
+        <f t="shared" si="0"/>
+        <v>45127</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45159</v>
-      </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="12">
+        <f t="shared" si="0"/>
+        <v>45128</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45160</v>
-      </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="12">
+        <f t="shared" si="0"/>
+        <v>45129</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45161</v>
-      </c>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="12">
+        <f t="shared" si="0"/>
+        <v>45130</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45162</v>
-      </c>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="12">
+        <f t="shared" si="0"/>
+        <v>45131</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45163</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="12">
+        <f t="shared" si="0"/>
+        <v>45132</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45164</v>
-      </c>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="12">
+        <f t="shared" si="0"/>
+        <v>45133</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45165</v>
-      </c>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="12">
+        <f t="shared" si="0"/>
+        <v>45134</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45166</v>
-      </c>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="12">
+        <f t="shared" si="0"/>
+        <v>45135</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45167</v>
-      </c>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="12">
+        <f t="shared" si="0"/>
+        <v>45136</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45168</v>
-      </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="B36" s="12">
+        <f t="shared" si="0"/>
+        <v>45137</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45169</v>
-      </c>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="B37" s="12">
+        <f t="shared" si="0"/>
+        <v>45138</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="35">

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9C28F23-EE33-4036-A78D-639E8E07CD97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA9F732-06CC-4C32-BCE2-D7227444E2F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
-    <x:workbookView xWindow="380" yWindow="380" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -231,43 +231,43 @@
     <x:t>23/09/01(金)</x:t>
   </x:si>
   <x:si>
-    <x:t>出勤、ﾃﾚ9-18</x:t>
+    <x:t>出勤</x:t>
   </x:si>
   <x:si>
     <x:t>通常勤務</x:t>
   </x:si>
   <x:si>
+    <x:t>8:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/02(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法定外休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/03(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法定休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/04(月)</x:t>
+  </x:si>
+  <x:si>
     <x:t>9:00</x:t>
   </x:si>
   <x:si>
     <x:t>18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>23/09/02(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法定外休日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/03(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法定休日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/04(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出勤</x:t>
-  </x:si>
-  <x:si>
     <x:t>23/09/05(火)</x:t>
   </x:si>
   <x:si>
     <x:t>23/09/06(水)</x:t>
   </x:si>
   <x:si>
-    <x:t>夏季休</x:t>
+    <x:t>夏季休暇</x:t>
   </x:si>
   <x:si>
     <x:t>23/09/07(木)</x:t>
@@ -415,7 +415,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="9">
+  <x:cellStyleXfs count="10">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -441,24 +441,12 @@
     <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="24">
+  <x:cellXfs count="25">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <x:alignment horizontal="center" vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <x:alignment horizontal="center" wrapText="1"/>
-    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
@@ -485,6 +473,22 @@
     <x:xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <x:alignment horizontal="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <x:alignment horizontal="center" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -819,8 +823,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:I37"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="C5" sqref="C5"/>
+    <x:sheetView topLeftCell="A9" workbookViewId="0">
+      <x:selection activeCell="E7" sqref="E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -843,390 +847,390 @@
       </x:c>
     </x:row>
     <x:row r="2" spans="1:10" customFormat="1" ht="19" customHeight="1">
-      <x:c r="A2" s="6" t="s"/>
+      <x:c r="A2" s="1" t="s"/>
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C2" s="10" t="s">
+      <x:c r="C2" s="5" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="16" t="s">
+      <x:c r="D2" s="17" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2" s="16" t="s"/>
+      <x:c r="E2" s="17" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="6" t="s"/>
-      <x:c r="B3" s="13">
+      <x:c r="A3" s="1" t="s"/>
+      <x:c r="B3" s="8">
         <x:f>TODAY()</x:f>
       </x:c>
-      <x:c r="C3" s="17">
+      <x:c r="C3" s="18">
         <x:v>45108</x:v>
       </x:c>
-      <x:c r="D3" s="18" t="s">
+      <x:c r="D3" s="19" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="18" t="s"/>
+      <x:c r="E3" s="19" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="6" t="s"/>
-      <x:c r="B4" s="13" t="s"/>
-      <x:c r="C4" s="11" t="s"/>
-      <x:c r="D4" s="18" t="s">
+      <x:c r="A4" s="1" t="s"/>
+      <x:c r="B4" s="8" t="s"/>
+      <x:c r="C4" s="6" t="s"/>
+      <x:c r="D4" s="19" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E4" s="18" t="s"/>
+      <x:c r="E4" s="19" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="6" t="s"/>
-      <x:c r="B5" s="13" t="s"/>
-      <x:c r="C5" s="11" t="s"/>
-      <x:c r="D5" s="14" t="s"/>
-      <x:c r="E5" s="14" t="s"/>
+      <x:c r="A5" s="1" t="s"/>
+      <x:c r="B5" s="8" t="s"/>
+      <x:c r="C5" s="6" t="s"/>
+      <x:c r="D5" s="9" t="s"/>
+      <x:c r="E5" s="9" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
-      <x:c r="A6" s="6" t="s"/>
-      <x:c r="B6" s="6" t="s">
+      <x:c r="A6" s="1" t="s"/>
+      <x:c r="B6" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C6" s="3" t="s">
+      <x:c r="C6" s="15" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s"/>
-      <x:c r="E6" s="6" t="s">
+      <x:c r="D6" s="15" t="s"/>
+      <x:c r="E6" s="1" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="F6" s="6" t="s">
+      <x:c r="F6" s="1" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G6" s="6" t="s"/>
-      <x:c r="H6" s="6" t="s">
+      <x:c r="G6" s="1" t="s"/>
+      <x:c r="H6" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:10">
-      <x:c r="A7" s="6" t="s"/>
-      <x:c r="B7" s="12">
+      <x:c r="A7" s="1" t="s"/>
+      <x:c r="B7" s="7">
         <x:f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</x:f>
       </x:c>
-      <x:c r="C7" s="19" t="s"/>
-      <x:c r="D7" s="19" t="s"/>
-      <x:c r="E7" s="20" t="s"/>
-      <x:c r="F7" s="21" t="s"/>
-      <x:c r="G7" s="6" t="s"/>
+      <x:c r="C7" s="20" t="s"/>
+      <x:c r="D7" s="20" t="s"/>
+      <x:c r="E7" s="21" t="s"/>
+      <x:c r="F7" s="22" t="s"/>
+      <x:c r="G7" s="1" t="s"/>
       <x:c r="I7" s="0" t="n">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
-      <x:c r="A8" s="6" t="s"/>
-      <x:c r="B8" s="12">
+      <x:c r="A8" s="1" t="s"/>
+      <x:c r="B8" s="7">
         <x:f>B7+1</x:f>
       </x:c>
-      <x:c r="C8" s="19" t="s"/>
-      <x:c r="D8" s="19" t="s"/>
-      <x:c r="E8" s="21" t="s"/>
-      <x:c r="F8" s="21" t="s"/>
-      <x:c r="G8" s="6" t="s"/>
-      <x:c r="H8" s="6" t="s"/>
+      <x:c r="C8" s="20" t="s"/>
+      <x:c r="D8" s="20" t="s"/>
+      <x:c r="E8" s="22" t="s"/>
+      <x:c r="F8" s="22" t="s"/>
+      <x:c r="G8" s="1" t="s"/>
+      <x:c r="H8" s="1" t="s"/>
     </x:row>
     <x:row r="9" spans="1:10">
-      <x:c r="A9" s="6" t="s"/>
-      <x:c r="B9" s="12">
+      <x:c r="A9" s="1" t="s"/>
+      <x:c r="B9" s="7">
         <x:f>B8+1</x:f>
       </x:c>
-      <x:c r="C9" s="19" t="s"/>
-      <x:c r="D9" s="19" t="s"/>
-      <x:c r="E9" s="21" t="s"/>
-      <x:c r="F9" s="21" t="s"/>
-      <x:c r="G9" s="6" t="s"/>
-      <x:c r="H9" s="6" t="s"/>
+      <x:c r="C9" s="20" t="s"/>
+      <x:c r="D9" s="20" t="s"/>
+      <x:c r="E9" s="22" t="s"/>
+      <x:c r="F9" s="22" t="s"/>
+      <x:c r="G9" s="1" t="s"/>
+      <x:c r="H9" s="1" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
-      <x:c r="A10" s="6" t="s"/>
-      <x:c r="B10" s="12">
+      <x:c r="A10" s="1" t="s"/>
+      <x:c r="B10" s="7">
         <x:f>B9+1</x:f>
       </x:c>
-      <x:c r="C10" s="19" t="s"/>
-      <x:c r="D10" s="19" t="s"/>
-      <x:c r="E10" s="21" t="s"/>
-      <x:c r="F10" s="21" t="s"/>
-      <x:c r="G10" s="6" t="s"/>
-      <x:c r="H10" s="6" t="s"/>
+      <x:c r="C10" s="20" t="s"/>
+      <x:c r="D10" s="20" t="s"/>
+      <x:c r="E10" s="22" t="s"/>
+      <x:c r="F10" s="22" t="s"/>
+      <x:c r="G10" s="1" t="s"/>
+      <x:c r="H10" s="1" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
-      <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="12">
+      <x:c r="A11" s="1" t="s"/>
+      <x:c r="B11" s="7">
         <x:f>B10+1</x:f>
       </x:c>
-      <x:c r="C11" s="19" t="s"/>
-      <x:c r="D11" s="19" t="s"/>
-      <x:c r="E11" s="21" t="s"/>
-      <x:c r="F11" s="21" t="s"/>
-      <x:c r="G11" s="6" t="s"/>
-      <x:c r="H11" s="6" t="s"/>
+      <x:c r="C11" s="20" t="s"/>
+      <x:c r="D11" s="20" t="s"/>
+      <x:c r="E11" s="22" t="s"/>
+      <x:c r="F11" s="22" t="s"/>
+      <x:c r="G11" s="1" t="s"/>
+      <x:c r="H11" s="1" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
-      <x:c r="A12" s="6" t="s"/>
-      <x:c r="B12" s="12">
+      <x:c r="A12" s="1" t="s"/>
+      <x:c r="B12" s="7">
         <x:f>B11+1</x:f>
       </x:c>
-      <x:c r="C12" s="19" t="s"/>
-      <x:c r="D12" s="19" t="s"/>
-      <x:c r="E12" s="21" t="s"/>
-      <x:c r="F12" s="21" t="s"/>
-      <x:c r="G12" s="6" t="s"/>
-      <x:c r="H12" s="6" t="s"/>
+      <x:c r="C12" s="20" t="s"/>
+      <x:c r="D12" s="20" t="s"/>
+      <x:c r="E12" s="22" t="s"/>
+      <x:c r="F12" s="22" t="s"/>
+      <x:c r="G12" s="1" t="s"/>
+      <x:c r="H12" s="1" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
-      <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="12">
+      <x:c r="A13" s="1" t="s"/>
+      <x:c r="B13" s="7">
         <x:f>B12+1</x:f>
       </x:c>
-      <x:c r="C13" s="19" t="s"/>
-      <x:c r="D13" s="19" t="s"/>
-      <x:c r="E13" s="21" t="s"/>
-      <x:c r="F13" s="21" t="s"/>
-      <x:c r="G13" s="6" t="s"/>
-      <x:c r="H13" s="6" t="s"/>
+      <x:c r="C13" s="20" t="s"/>
+      <x:c r="D13" s="20" t="s"/>
+      <x:c r="E13" s="22" t="s"/>
+      <x:c r="F13" s="22" t="s"/>
+      <x:c r="G13" s="1" t="s"/>
+      <x:c r="H13" s="1" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
-      <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="12">
+      <x:c r="A14" s="1" t="s"/>
+      <x:c r="B14" s="7">
         <x:f>B13+1</x:f>
       </x:c>
-      <x:c r="C14" s="19" t="s"/>
-      <x:c r="D14" s="19" t="s"/>
-      <x:c r="E14" s="21" t="s"/>
-      <x:c r="F14" s="21" t="s"/>
-      <x:c r="G14" s="6" t="s"/>
-      <x:c r="H14" s="6" t="s"/>
+      <x:c r="C14" s="20" t="s"/>
+      <x:c r="D14" s="20" t="s"/>
+      <x:c r="E14" s="22" t="s"/>
+      <x:c r="F14" s="22" t="s"/>
+      <x:c r="G14" s="1" t="s"/>
+      <x:c r="H14" s="1" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
-      <x:c r="A15" s="6" t="s"/>
-      <x:c r="B15" s="12">
+      <x:c r="A15" s="1" t="s"/>
+      <x:c r="B15" s="7">
         <x:f>B14+1</x:f>
       </x:c>
-      <x:c r="C15" s="19" t="s"/>
-      <x:c r="D15" s="19" t="s"/>
-      <x:c r="E15" s="21" t="s"/>
-      <x:c r="F15" s="21" t="s"/>
-      <x:c r="G15" s="6" t="s"/>
-      <x:c r="H15" s="6" t="s"/>
+      <x:c r="C15" s="20" t="s"/>
+      <x:c r="D15" s="20" t="s"/>
+      <x:c r="E15" s="22" t="s"/>
+      <x:c r="F15" s="22" t="s"/>
+      <x:c r="G15" s="1" t="s"/>
+      <x:c r="H15" s="1" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
-      <x:c r="A16" s="6" t="s"/>
-      <x:c r="B16" s="12">
+      <x:c r="A16" s="1" t="s"/>
+      <x:c r="B16" s="7">
         <x:f>B15+1</x:f>
       </x:c>
-      <x:c r="C16" s="19" t="s"/>
-      <x:c r="D16" s="19" t="s"/>
-      <x:c r="E16" s="21" t="s"/>
-      <x:c r="F16" s="21" t="s"/>
-      <x:c r="G16" s="6" t="s"/>
-      <x:c r="H16" s="6" t="s"/>
+      <x:c r="C16" s="20" t="s"/>
+      <x:c r="D16" s="20" t="s"/>
+      <x:c r="E16" s="22" t="s"/>
+      <x:c r="F16" s="22" t="s"/>
+      <x:c r="G16" s="1" t="s"/>
+      <x:c r="H16" s="1" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="6" t="s"/>
-      <x:c r="B17" s="12">
+      <x:c r="A17" s="1" t="s"/>
+      <x:c r="B17" s="7">
         <x:f>B16+1</x:f>
       </x:c>
-      <x:c r="C17" s="19" t="s"/>
-      <x:c r="D17" s="19" t="s"/>
-      <x:c r="E17" s="21" t="s"/>
-      <x:c r="F17" s="21" t="s"/>
-      <x:c r="G17" s="6" t="s"/>
-      <x:c r="H17" s="6" t="s"/>
+      <x:c r="C17" s="20" t="s"/>
+      <x:c r="D17" s="20" t="s"/>
+      <x:c r="E17" s="22" t="s"/>
+      <x:c r="F17" s="22" t="s"/>
+      <x:c r="G17" s="1" t="s"/>
+      <x:c r="H17" s="1" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="6" t="s"/>
-      <x:c r="B18" s="12">
+      <x:c r="A18" s="1" t="s"/>
+      <x:c r="B18" s="7">
         <x:f>B17+1</x:f>
       </x:c>
-      <x:c r="C18" s="19" t="s"/>
-      <x:c r="D18" s="19" t="s"/>
-      <x:c r="E18" s="21" t="s"/>
-      <x:c r="F18" s="21" t="s"/>
-      <x:c r="G18" s="6" t="s"/>
-      <x:c r="H18" s="6" t="s"/>
+      <x:c r="C18" s="20" t="s"/>
+      <x:c r="D18" s="20" t="s"/>
+      <x:c r="E18" s="22" t="s"/>
+      <x:c r="F18" s="22" t="s"/>
+      <x:c r="G18" s="1" t="s"/>
+      <x:c r="H18" s="1" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="6" t="s"/>
-      <x:c r="B19" s="12">
+      <x:c r="A19" s="1" t="s"/>
+      <x:c r="B19" s="7">
         <x:f>B18+1</x:f>
       </x:c>
-      <x:c r="C19" s="19" t="s"/>
-      <x:c r="D19" s="19" t="s"/>
-      <x:c r="E19" s="21" t="s"/>
-      <x:c r="F19" s="21" t="s"/>
-      <x:c r="G19" s="6" t="s"/>
-      <x:c r="H19" s="6" t="s"/>
+      <x:c r="C19" s="20" t="s"/>
+      <x:c r="D19" s="20" t="s"/>
+      <x:c r="E19" s="22" t="s"/>
+      <x:c r="F19" s="22" t="s"/>
+      <x:c r="G19" s="1" t="s"/>
+      <x:c r="H19" s="1" t="s"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="B20" s="12">
+      <x:c r="B20" s="7">
         <x:f>B19+1</x:f>
       </x:c>
-      <x:c r="C20" s="19" t="s"/>
-      <x:c r="D20" s="19" t="s"/>
-      <x:c r="E20" s="21" t="s"/>
-      <x:c r="F20" s="21" t="s"/>
-      <x:c r="G20" s="6" t="s"/>
-      <x:c r="H20" s="6" t="s"/>
+      <x:c r="C20" s="20" t="s"/>
+      <x:c r="D20" s="20" t="s"/>
+      <x:c r="E20" s="22" t="s"/>
+      <x:c r="F20" s="22" t="s"/>
+      <x:c r="G20" s="1" t="s"/>
+      <x:c r="H20" s="1" t="s"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="B21" s="12">
+      <x:c r="B21" s="7">
         <x:f>B20+1</x:f>
       </x:c>
-      <x:c r="C21" s="19" t="s"/>
-      <x:c r="D21" s="19" t="s"/>
-      <x:c r="E21" s="21" t="s"/>
-      <x:c r="F21" s="21" t="s"/>
-      <x:c r="G21" s="6" t="s"/>
-      <x:c r="H21" s="6" t="s"/>
+      <x:c r="C21" s="20" t="s"/>
+      <x:c r="D21" s="20" t="s"/>
+      <x:c r="E21" s="22" t="s"/>
+      <x:c r="F21" s="22" t="s"/>
+      <x:c r="G21" s="1" t="s"/>
+      <x:c r="H21" s="1" t="s"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="B22" s="12">
+      <x:c r="B22" s="7">
         <x:f>B21+1</x:f>
       </x:c>
-      <x:c r="C22" s="22" t="s"/>
-      <x:c r="D22" s="22" t="s"/>
-      <x:c r="E22" s="23" t="s"/>
-      <x:c r="F22" s="23" t="s"/>
+      <x:c r="C22" s="23" t="s"/>
+      <x:c r="D22" s="23" t="s"/>
+      <x:c r="E22" s="24" t="s"/>
+      <x:c r="F22" s="24" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="B23" s="12">
+      <x:c r="B23" s="7">
         <x:f>B22+1</x:f>
       </x:c>
-      <x:c r="C23" s="22" t="s"/>
-      <x:c r="D23" s="22" t="s"/>
-      <x:c r="E23" s="23" t="s"/>
-      <x:c r="F23" s="23" t="s"/>
+      <x:c r="C23" s="23" t="s"/>
+      <x:c r="D23" s="23" t="s"/>
+      <x:c r="E23" s="24" t="s"/>
+      <x:c r="F23" s="24" t="s"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="B24" s="12">
+      <x:c r="B24" s="7">
         <x:f>B23+1</x:f>
       </x:c>
-      <x:c r="C24" s="22" t="s"/>
-      <x:c r="D24" s="22" t="s"/>
-      <x:c r="E24" s="23" t="s"/>
-      <x:c r="F24" s="23" t="s"/>
+      <x:c r="C24" s="23" t="s"/>
+      <x:c r="D24" s="23" t="s"/>
+      <x:c r="E24" s="24" t="s"/>
+      <x:c r="F24" s="24" t="s"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="B25" s="12">
+      <x:c r="B25" s="7">
         <x:f>B24+1</x:f>
       </x:c>
-      <x:c r="C25" s="22" t="s"/>
-      <x:c r="D25" s="22" t="s"/>
-      <x:c r="E25" s="23" t="s"/>
-      <x:c r="F25" s="23" t="s"/>
+      <x:c r="C25" s="23" t="s"/>
+      <x:c r="D25" s="23" t="s"/>
+      <x:c r="E25" s="24" t="s"/>
+      <x:c r="F25" s="24" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="B26" s="12">
+      <x:c r="B26" s="7">
         <x:f>B25+1</x:f>
       </x:c>
-      <x:c r="C26" s="22" t="s"/>
-      <x:c r="D26" s="22" t="s"/>
-      <x:c r="E26" s="23" t="s"/>
-      <x:c r="F26" s="23" t="s"/>
+      <x:c r="C26" s="23" t="s"/>
+      <x:c r="D26" s="23" t="s"/>
+      <x:c r="E26" s="24" t="s"/>
+      <x:c r="F26" s="24" t="s"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="B27" s="12">
+      <x:c r="B27" s="7">
         <x:f>B26+1</x:f>
       </x:c>
-      <x:c r="C27" s="22" t="s"/>
-      <x:c r="D27" s="22" t="s"/>
-      <x:c r="E27" s="23" t="s"/>
-      <x:c r="F27" s="23" t="s"/>
+      <x:c r="C27" s="23" t="s"/>
+      <x:c r="D27" s="23" t="s"/>
+      <x:c r="E27" s="24" t="s"/>
+      <x:c r="F27" s="24" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="B28" s="12">
+      <x:c r="B28" s="7">
         <x:f>B27+1</x:f>
       </x:c>
-      <x:c r="C28" s="22" t="s"/>
-      <x:c r="D28" s="22" t="s"/>
-      <x:c r="E28" s="23" t="s"/>
-      <x:c r="F28" s="23" t="s"/>
+      <x:c r="C28" s="23" t="s"/>
+      <x:c r="D28" s="23" t="s"/>
+      <x:c r="E28" s="24" t="s"/>
+      <x:c r="F28" s="24" t="s"/>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="B29" s="12">
+      <x:c r="B29" s="7">
         <x:f>B28+1</x:f>
       </x:c>
-      <x:c r="C29" s="22" t="s"/>
-      <x:c r="D29" s="22" t="s"/>
-      <x:c r="E29" s="23" t="s"/>
-      <x:c r="F29" s="23" t="s"/>
+      <x:c r="C29" s="23" t="s"/>
+      <x:c r="D29" s="23" t="s"/>
+      <x:c r="E29" s="24" t="s"/>
+      <x:c r="F29" s="24" t="s"/>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="B30" s="12">
+      <x:c r="B30" s="7">
         <x:f>B29+1</x:f>
       </x:c>
-      <x:c r="C30" s="22" t="s"/>
-      <x:c r="D30" s="22" t="s"/>
-      <x:c r="E30" s="23" t="s"/>
-      <x:c r="F30" s="23" t="s"/>
+      <x:c r="C30" s="23" t="s"/>
+      <x:c r="D30" s="23" t="s"/>
+      <x:c r="E30" s="24" t="s"/>
+      <x:c r="F30" s="24" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="B31" s="12">
+      <x:c r="B31" s="7">
         <x:f>B30+1</x:f>
       </x:c>
-      <x:c r="C31" s="22" t="s"/>
-      <x:c r="D31" s="22" t="s"/>
-      <x:c r="E31" s="23" t="s"/>
-      <x:c r="F31" s="23" t="s"/>
+      <x:c r="C31" s="23" t="s"/>
+      <x:c r="D31" s="23" t="s"/>
+      <x:c r="E31" s="24" t="s"/>
+      <x:c r="F31" s="24" t="s"/>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="B32" s="12">
+      <x:c r="B32" s="7">
         <x:f>B31+1</x:f>
       </x:c>
-      <x:c r="C32" s="22" t="s"/>
-      <x:c r="D32" s="22" t="s"/>
-      <x:c r="E32" s="23" t="s"/>
-      <x:c r="F32" s="23" t="s"/>
+      <x:c r="C32" s="23" t="s"/>
+      <x:c r="D32" s="23" t="s"/>
+      <x:c r="E32" s="24" t="s"/>
+      <x:c r="F32" s="24" t="s"/>
     </x:row>
     <x:row r="33" spans="1:10">
-      <x:c r="B33" s="12">
+      <x:c r="B33" s="7">
         <x:f>B32+1</x:f>
       </x:c>
-      <x:c r="C33" s="22" t="s"/>
-      <x:c r="D33" s="22" t="s"/>
-      <x:c r="E33" s="23" t="s"/>
-      <x:c r="F33" s="23" t="s"/>
+      <x:c r="C33" s="23" t="s"/>
+      <x:c r="D33" s="23" t="s"/>
+      <x:c r="E33" s="24" t="s"/>
+      <x:c r="F33" s="24" t="s"/>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="B34" s="12">
+      <x:c r="B34" s="7">
         <x:f>B33+1</x:f>
       </x:c>
-      <x:c r="C34" s="22" t="s"/>
-      <x:c r="D34" s="22" t="s"/>
-      <x:c r="E34" s="23" t="s"/>
-      <x:c r="F34" s="23" t="s"/>
+      <x:c r="C34" s="23" t="s"/>
+      <x:c r="D34" s="23" t="s"/>
+      <x:c r="E34" s="24" t="s"/>
+      <x:c r="F34" s="24" t="s"/>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="B35" s="12">
+      <x:c r="B35" s="7">
         <x:f>B34+1</x:f>
       </x:c>
-      <x:c r="C35" s="22" t="s"/>
-      <x:c r="D35" s="22" t="s"/>
-      <x:c r="E35" s="23" t="s"/>
-      <x:c r="F35" s="23" t="s"/>
+      <x:c r="C35" s="23" t="s"/>
+      <x:c r="D35" s="23" t="s"/>
+      <x:c r="E35" s="24" t="s"/>
+      <x:c r="F35" s="24" t="s"/>
     </x:row>
     <x:row r="36" spans="1:10">
-      <x:c r="B36" s="12">
+      <x:c r="B36" s="7">
         <x:f>B35+1</x:f>
       </x:c>
-      <x:c r="C36" s="22" t="s"/>
-      <x:c r="D36" s="22" t="s"/>
-      <x:c r="E36" s="23" t="s"/>
-      <x:c r="F36" s="23" t="s"/>
+      <x:c r="C36" s="23" t="s"/>
+      <x:c r="D36" s="23" t="s"/>
+      <x:c r="E36" s="24" t="s"/>
+      <x:c r="F36" s="24" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="B37" s="12">
+      <x:c r="B37" s="7">
         <x:f>B36+1</x:f>
       </x:c>
-      <x:c r="C37" s="22" t="s"/>
-      <x:c r="D37" s="22" t="s"/>
-      <x:c r="E37" s="23" t="s"/>
-      <x:c r="F37" s="23" t="s"/>
+      <x:c r="C37" s="23" t="s"/>
+      <x:c r="D37" s="23" t="s"/>
+      <x:c r="E37" s="24" t="s"/>
+      <x:c r="F37" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="35">
@@ -1294,426 +1298,423 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="D7"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
-      <x:selection activeCell="E2" sqref="E2"/>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F12" sqref="F12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
   <x:sheetData>
-    <x:row r="1" spans="1:5">
-      <x:c r="A1" s="0" t="s">
+    <x:row r="2" spans="1:6">
+      <x:c r="B2" s="0" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="B1" s="0" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C1" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D1" s="0" t="s">
+      <x:c r="C2" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D2" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E2" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="E1" s="0" t="s">
+    </x:row>
+    <x:row r="3" spans="1:6">
+      <x:c r="B3" s="0" t="s">
         <x:v>15</x:v>
       </x:c>
-    </x:row>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s">
+      <x:c r="C3" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="B2" s="0" t="s">
+    </x:row>
+    <x:row r="4" spans="1:6">
+      <x:c r="B4" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-    </x:row>
-    <x:row r="3" spans="1:5">
-      <x:c r="A3" s="0" t="s">
+      <x:c r="C4" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="B3" s="0" t="s">
+    </x:row>
+    <x:row r="5" spans="1:6">
+      <x:c r="B5" s="0" t="s">
         <x:v>19</x:v>
       </x:c>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="A4" s="0" t="s">
+      <x:c r="C5" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E5" s="0" t="s">
         <x:v>20</x:v>
       </x:c>
-      <x:c r="B4" s="0" t="s">
+      <x:c r="F5" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C4" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E4" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="A5" s="0" t="s">
+    </x:row>
+    <x:row r="6" spans="1:6">
+      <x:c r="B6" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="B5" s="0" t="s">
+      <x:c r="C6" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E6" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F6" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E5" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="6" spans="1:5">
-      <x:c r="A6" s="0" t="s">
+    </x:row>
+    <x:row r="7" spans="1:6">
+      <x:c r="B7" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B6" s="0" t="s">
+      <x:c r="C7" s="0" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="7" spans="1:5">
-      <x:c r="A7" s="0" t="s">
+      <x:c r="D7" s="16" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:6">
+      <x:c r="B8" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B7" s="0" t="s">
+      <x:c r="C8" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D8" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E8" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F8" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C7" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D7" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E7" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="1:5">
-      <x:c r="A8" s="0" t="s">
+    </x:row>
+    <x:row r="9" spans="1:6">
+      <x:c r="B9" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="B8" s="0" t="s">
+      <x:c r="C9" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E9" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F9" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C8" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D8" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E8" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="1:5">
-      <x:c r="A9" s="0" t="s">
+    </x:row>
+    <x:row r="10" spans="1:6">
+      <x:c r="B10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="B9" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="1:5">
-      <x:c r="A10" s="0" t="s">
+      <x:c r="C10" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:6">
+      <x:c r="B11" s="0" t="s">
         <x:v>28</x:v>
       </x:c>
-      <x:c r="B10" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="1:5">
-      <x:c r="A11" s="0" t="s">
+      <x:c r="C11" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:6">
+      <x:c r="B12" s="0" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="B11" s="0" t="s">
+      <x:c r="C12" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E12" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F12" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C11" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E11" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="12" spans="1:5">
-      <x:c r="A12" s="0" t="s">
+    </x:row>
+    <x:row r="13" spans="1:6">
+      <x:c r="B13" s="0" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B12" s="0" t="s">
+      <x:c r="C13" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E13" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C12" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E12" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:5">
-      <x:c r="A13" s="0" t="s">
+    </x:row>
+    <x:row r="14" spans="1:6">
+      <x:c r="B14" s="0" t="s">
         <x:v>31</x:v>
       </x:c>
-      <x:c r="B13" s="0" t="s">
+      <x:c r="C14" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E14" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F14" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E13" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:5">
-      <x:c r="A14" s="0" t="s">
+    </x:row>
+    <x:row r="15" spans="1:6">
+      <x:c r="B15" s="0" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B14" s="0" t="s">
+      <x:c r="C15" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E14" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="1:5">
-      <x:c r="A15" s="0" t="s">
+    </x:row>
+    <x:row r="16" spans="1:6">
+      <x:c r="B16" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="B15" s="0" t="s">
+      <x:c r="C16" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C15" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D15" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E15" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="1:5">
-      <x:c r="A16" s="0" t="s">
+    </x:row>
+    <x:row r="17" spans="1:6">
+      <x:c r="B17" s="0" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="1:5">
-      <x:c r="A17" s="0" t="s">
+      <x:c r="C17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:6">
+      <x:c r="B18" s="0" t="s">
         <x:v>35</x:v>
       </x:c>
-      <x:c r="B17" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="1:5">
-      <x:c r="A18" s="0" t="s">
+      <x:c r="C18" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:6">
+      <x:c r="B19" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="B18" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="1:5">
-      <x:c r="A19" s="0" t="s">
+      <x:c r="C19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:6">
+      <x:c r="B20" s="0" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="B19" s="0" t="s">
+      <x:c r="C20" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C19" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E19" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="20" spans="1:5">
-      <x:c r="A20" s="0" t="s">
+    </x:row>
+    <x:row r="21" spans="1:6">
+      <x:c r="B21" s="0" t="s">
         <x:v>38</x:v>
       </x:c>
-      <x:c r="B20" s="0" t="s">
+      <x:c r="C21" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C20" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E20" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="1:5">
-      <x:c r="A21" s="0" t="s">
+    </x:row>
+    <x:row r="22" spans="1:6">
+      <x:c r="B22" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="B21" s="0" t="s">
+      <x:c r="C22" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D22" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E22" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F22" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C21" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E21" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="22" spans="1:5">
-      <x:c r="A22" s="0" t="s">
+    </x:row>
+    <x:row r="23" spans="1:6">
+      <x:c r="B23" s="0" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="B22" s="0" t="s">
+      <x:c r="C23" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D23" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E23" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F23" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C22" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D22" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E22" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="1:5">
-      <x:c r="A23" s="0" t="s">
+    </x:row>
+    <x:row r="24" spans="1:6">
+      <x:c r="B24" s="0" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="B23" s="0" t="s">
-        <x:v>17</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="24" spans="1:5">
-      <x:c r="A24" s="0" t="s">
+      <x:c r="C24" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="1:6">
+      <x:c r="B25" s="0" t="s">
         <x:v>42</x:v>
       </x:c>
-      <x:c r="B24" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="25" spans="1:5">
-      <x:c r="A25" s="0" t="s">
+      <x:c r="C25" s="0" t="s">
+        <x:v>18</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:6">
+      <x:c r="B26" s="0" t="s">
         <x:v>43</x:v>
       </x:c>
-      <x:c r="B25" s="0" t="s">
+      <x:c r="C26" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D26" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E26" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F26" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C25" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E25" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="26" spans="1:5">
-      <x:c r="A26" s="0" t="s">
+    </x:row>
+    <x:row r="27" spans="1:6">
+      <x:c r="B27" s="0" t="s">
         <x:v>44</x:v>
       </x:c>
-      <x:c r="B26" s="0" t="s">
+      <x:c r="C27" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E27" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F27" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C26" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D26" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E26" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="27" spans="1:5">
-      <x:c r="A27" s="0" t="s">
+    </x:row>
+    <x:row r="28" spans="1:6">
+      <x:c r="B28" s="0" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="B27" s="0" t="s">
+      <x:c r="C28" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E28" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F28" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C27" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E27" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="28" spans="1:5">
-      <x:c r="A28" s="0" t="s">
+    </x:row>
+    <x:row r="29" spans="1:6">
+      <x:c r="B29" s="0" t="s">
         <x:v>46</x:v>
       </x:c>
-      <x:c r="B28" s="0" t="s">
+      <x:c r="C29" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D29" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E29" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F29" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C28" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E28" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="29" spans="1:5">
-      <x:c r="A29" s="0" t="s">
+    </x:row>
+    <x:row r="30" spans="1:6">
+      <x:c r="B30" s="0" t="s">
         <x:v>47</x:v>
       </x:c>
-      <x:c r="B29" s="0" t="s">
+      <x:c r="C30" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="D30" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="E30" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F30" s="0" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C29" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="D29" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="E29" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="30" spans="1:5">
-      <x:c r="A30" s="0" t="s">
+    </x:row>
+    <x:row r="31" spans="1:6">
+      <x:c r="B31" s="0" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="B30" s="0" t="s">
-        <x:v>17</x:v>
+      <x:c r="C31" s="0" t="s">
+        <x:v>16</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED768FA-8B74-4A63-A267-D13FD5132A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5ED768FA-8B74-4A63-A267-D13FD5132A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5925D2A-39E2-4B02-9BA9-E667D1049BD1}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="520" yWindow="1380" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -231,9 +231,6 @@
     <t>通常勤務</t>
   </si>
   <si>
-    <t>8:57</t>
-  </si>
-  <si>
     <t>23/09/02(土)</t>
   </si>
   <si>
@@ -247,12 +244,6 @@
   </si>
   <si>
     <t>23/09/04(月)</t>
-  </si>
-  <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
   </si>
   <si>
     <t>23/09/05(火)</t>
@@ -429,6 +420,43 @@
     <t>休憩4</t>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>SJ-1部※SES-営業支援(原)</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -437,11 +465,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -511,7 +540,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -532,6 +560,9 @@
     <xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -547,8 +578,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -848,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -876,51 +905,51 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="14"/>
+      <c r="E2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1"/>
-      <c r="B3" s="8">
+      <c r="B3" s="7">
         <f ca="1">TODAY()</f>
         <v>45173</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="15"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="15" t="s">
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="15"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="18"/>
       <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
@@ -934,15 +963,19 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1"/>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45170</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="4"/>
+      <c r="C7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="3" t="s">
+        <v>62</v>
+      </c>
       <c r="F7" s="2" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" t="s">
@@ -954,14 +987,20 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1"/>
-      <c r="B8" s="7">
-        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
+      <c r="B8" s="6">
+        <f t="shared" ref="B8:B35" ca="1" si="0">B7+1</f>
         <v>45171</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
+      <c r="C8" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="15"/>
+      <c r="E8" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
         <v>12</v>
@@ -969,330 +1008,486 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1"/>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45172</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
+      <c r="C9" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1"/>
-      <c r="B10" s="7">
+      <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45173</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
+      <c r="C10" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="15"/>
+      <c r="E10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1"/>
-      <c r="B11" s="7">
+      <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45174</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
+      <c r="C11" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="15"/>
+      <c r="E11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="1"/>
-      <c r="B12" s="7">
+      <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45175</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
+      <c r="C12" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="15"/>
+      <c r="E12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="1"/>
-      <c r="B13" s="7">
+      <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45176</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
+      <c r="C13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="1"/>
-      <c r="B14" s="7">
+      <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45177</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
+      <c r="C14" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="1"/>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45178</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+      <c r="C15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="1"/>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45179</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+      <c r="C16" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="1"/>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45180</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="C17" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="15"/>
+      <c r="E17" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="1"/>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45181</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
+      <c r="C18" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="15"/>
+      <c r="E18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="1"/>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45182</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
+      <c r="C19" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="15"/>
+      <c r="E19" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="7">
+      <c r="B20" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45183</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
+      <c r="C20" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" s="15"/>
+      <c r="E20" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="7">
+      <c r="B21" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45184</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
+      <c r="C21" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="7">
+      <c r="B22" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45185</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="C22" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="15"/>
+      <c r="E22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45186</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+      <c r="C23" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="14"/>
+      <c r="E23" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="7">
+      <c r="B24" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45187</v>
       </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="7">
+      <c r="B25" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45188</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
+      <c r="C25" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D25" s="14"/>
+      <c r="E25" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="7">
+      <c r="B26" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45189</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
+      <c r="C26" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="14"/>
+      <c r="E26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="7">
+      <c r="B27" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45190</v>
       </c>
-      <c r="C27" s="12"/>
-      <c r="D27" s="12"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C27" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="7">
+      <c r="B28" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45191</v>
       </c>
-      <c r="C28" s="12"/>
-      <c r="D28" s="12"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
+      <c r="C28" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="14"/>
+      <c r="E28" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="7">
+      <c r="B29" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45192</v>
       </c>
-      <c r="C29" s="12"/>
-      <c r="D29" s="12"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
+      <c r="C29" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="7">
+      <c r="B30" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45193</v>
       </c>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
+      <c r="C30" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D30" s="14"/>
+      <c r="E30" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="7">
+      <c r="B31" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45194</v>
       </c>
-      <c r="C31" s="12"/>
-      <c r="D31" s="12"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
+      <c r="C31" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="14"/>
+      <c r="E31" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="7">
+      <c r="B32" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45195</v>
       </c>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
+      <c r="C32" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="7">
+      <c r="B33" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45196</v>
       </c>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
+      <c r="C33" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="14"/>
+      <c r="E33" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="7">
+      <c r="B34" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45197</v>
       </c>
-      <c r="C34" s="12"/>
-      <c r="D34" s="12"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
+      <c r="C34" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="14"/>
+      <c r="E34" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="7">
+      <c r="B35" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45198</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="C35" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="14"/>
+      <c r="E35" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45199</v>
-      </c>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
       <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
+      <c r="F36" s="2"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="7">
-        <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
-      </c>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
@@ -1342,7 +1537,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{E7636C73-CC91-41FE-BF2D-17539A5C89B4}">
       <formula1>$H$7:$H$36</formula1>
     </dataValidation>
   </dataValidations>
@@ -1354,11 +1549,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26:F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="6" width="8.6640625" style="13"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
@@ -1370,101 +1568,104 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
+      <c r="E2" s="13">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="F2" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
       <c r="Q2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="K3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="M3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="N3" s="11"/>
+      <c r="Q3" t="s">
         <v>55</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="R3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" t="s">
         <v>56</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="Q3" t="s">
-        <v>58</v>
-      </c>
-      <c r="R3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S3" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="17" t="str">
+      <c r="J4" s="11" t="str">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="b">
+      <c r="L4" s="11" t="b">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="b">
+      <c r="M4" s="11" t="b">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="11"/>
       <c r="Q4" t="s">
-        <v>60</v>
-      </c>
-      <c r="R4" s="10">
+        <v>57</v>
+      </c>
+      <c r="R4" s="9">
         <v>0.5</v>
       </c>
-      <c r="S4" s="10">
+      <c r="S4" s="9">
         <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1472,50 +1673,50 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="17" t="str">
+      <c r="E5" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="11">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I5" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I5" s="11">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="11" t="b">
         <f>IF(F5 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11" t="b">
         <f>IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="N5" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="11"/>
       <c r="Q5" t="s">
-        <v>61</v>
-      </c>
-      <c r="R5" s="10">
+        <v>58</v>
+      </c>
+      <c r="R5" s="9">
         <v>0.75</v>
       </c>
-      <c r="S5" s="10">
+      <c r="S5" s="9">
         <v>0.77083333333333337</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1523,95 +1724,95 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="17" t="str">
+      <c r="E6" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="11">
         <f>IF(E6 &gt; $S$7, E6, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I6" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="11">
         <f>IF(F6 &gt; $R$4, $R$4, F6)</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <f>IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <f>IF(F6 &gt; $R$5, $R$5, F6)</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="11" t="b">
         <f>IF(F6 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="b">
         <f>IF(L6 = FALSE, FALSE,IF(F6 &gt; $R$6, $R$6, F6))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="Q6" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="9">
         <v>0.97916666666666663</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="Q6" t="s">
-        <v>62</v>
-      </c>
-      <c r="R6" s="10">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="S6" s="18">
+      <c r="S6" s="12">
         <v>2.0833333333333332E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <f>IF(E7 &gt; $S$7, E7, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <f>IF(F7 &gt; $R$4, $R$4, F7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="17" t="str">
+      <c r="J7" s="11" t="str">
         <f>IF(F7 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <f>IF(F7 &gt; $R$5, $R$5, F7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="17" t="b">
+      <c r="L7" s="11" t="b">
         <f>IF(F7 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="17" t="b">
+      <c r="M7" s="11" t="b">
         <f>IF(L7 = FALSE, FALSE,IF(F7 &gt; $R$6, $R$6, F7))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="11"/>
       <c r="Q7" t="s">
-        <v>63</v>
-      </c>
-      <c r="R7" s="10">
+        <v>60</v>
+      </c>
+      <c r="R7" s="9">
         <v>0.20833333333333334</v>
       </c>
-      <c r="S7" s="10">
+      <c r="S7" s="9">
         <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1619,41 +1820,41 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="17" t="str">
+      <c r="E8" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="11">
         <f>IF(E8 &gt; $S$7, E8, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I8" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I8" s="11">
         <f>IF(F8 &gt; $R$4, $R$4, F8)</f>
         <v>0.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <f>IF(F8 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666663</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <f>IF(F8 &gt; $R$5, $R$5, F8)</f>
         <v>0.75</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11" t="b">
         <f>IF(F8 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11" t="b">
         <f>IF(L8 = FALSE, FALSE,IF(F8 &gt; $R$6, $R$6, F8))</f>
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="N8" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1661,32 +1862,32 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" t="s">
-        <v>23</v>
+      <c r="E9" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1694,16 +1895,16 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" t="s">
-        <v>23</v>
+      <c r="E12" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1711,16 +1912,16 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" t="s">
-        <v>23</v>
+      <c r="E13" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="13">
+        <v>0.79166666666666663</v>
       </c>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1728,16 +1929,16 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" t="s">
-        <v>23</v>
+      <c r="E14" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1745,16 +1946,16 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" t="s">
-        <v>23</v>
+      <c r="E15" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F15" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1762,40 +1963,40 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F16" t="s">
-        <v>23</v>
+      <c r="E16" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1803,16 +2004,16 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F20" t="s">
-        <v>23</v>
+      <c r="E20" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1820,16 +2021,16 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" t="s">
-        <v>23</v>
+      <c r="E21" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F21" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1837,16 +2038,16 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>22</v>
-      </c>
-      <c r="F22" t="s">
-        <v>23</v>
+      <c r="E22" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1854,32 +2055,32 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>22</v>
-      </c>
-      <c r="F23" t="s">
-        <v>23</v>
+      <c r="E23" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F23" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -1887,16 +2088,16 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" t="s">
-        <v>23</v>
+      <c r="E26" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -1904,16 +2105,16 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" t="s">
-        <v>23</v>
+      <c r="E27" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -1921,16 +2122,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" t="s">
-        <v>23</v>
+      <c r="E28" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F28" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -1938,16 +2139,16 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" t="s">
-        <v>22</v>
-      </c>
-      <c r="F29" t="s">
-        <v>23</v>
+      <c r="E29" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F29" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -1955,19 +2156,19 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
-        <v>22</v>
-      </c>
-      <c r="F30" t="s">
-        <v>23</v>
+      <c r="E30" s="13">
+        <v>0.375</v>
+      </c>
+      <c r="F30" s="13">
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{5ED768FA-8B74-4A63-A267-D13FD5132A4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5925D2A-39E2-4B02-9BA9-E667D1049BD1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469EB83-2828-479D-A54A-9F4D60A88D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1380" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -231,246 +231,336 @@
     <t>通常勤務</t>
   </si>
   <si>
-    <t>23/09/02(土)</t>
-  </si>
-  <si>
-    <t>法定外休日</t>
-  </si>
-  <si>
-    <t>23/09/03(日)</t>
-  </si>
-  <si>
-    <t>法定休日</t>
-  </si>
-  <si>
-    <t>23/09/04(月)</t>
-  </si>
-  <si>
-    <t>23/09/05(火)</t>
-  </si>
-  <si>
-    <t>23/09/06(水)</t>
-  </si>
-  <si>
-    <t>夏季休暇</t>
-  </si>
-  <si>
-    <t>23/09/07(木)</t>
-  </si>
-  <si>
-    <t>23/09/08(金)</t>
-  </si>
-  <si>
-    <t>23/09/09(土)</t>
-  </si>
-  <si>
-    <t>23/09/10(日)</t>
-  </si>
-  <si>
-    <t>23/09/11(月)</t>
-  </si>
-  <si>
-    <t>23/09/12(火)</t>
-  </si>
-  <si>
-    <t>23/09/13(水)</t>
-  </si>
-  <si>
-    <t>23/09/14(木)</t>
-  </si>
-  <si>
-    <t>23/09/15(金)</t>
-  </si>
-  <si>
-    <t>23/09/16(土)</t>
-  </si>
-  <si>
-    <t>23/09/17(日)</t>
-  </si>
-  <si>
-    <t>23/09/18(月)</t>
-  </si>
-  <si>
-    <t>23/09/19(火)</t>
-  </si>
-  <si>
-    <t>23/09/20(水)</t>
-  </si>
-  <si>
-    <t>23/09/21(木)</t>
-  </si>
-  <si>
-    <t>23/09/22(金)</t>
-  </si>
-  <si>
-    <t>23/09/23(土)</t>
-  </si>
-  <si>
-    <t>23/09/24(日)</t>
-  </si>
-  <si>
-    <t>23/09/25(月)</t>
-  </si>
-  <si>
-    <t>23/09/26(火)</t>
-  </si>
-  <si>
-    <t>23/09/27(水)</t>
-  </si>
-  <si>
-    <t>23/09/28(木)</t>
-  </si>
-  <si>
-    <t>23/09/29(金)</t>
-  </si>
-  <si>
-    <t>23/09/30(土)</t>
-  </si>
-  <si>
-    <t>定数(休み)</t>
+    <t>8:57</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>定数(休み)</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>テイスウ</t>
     </rPh>
     <rPh sb="3" eb="4">
       <t>ヤス</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>開始</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/02(土)</t>
+  </si>
+  <si>
+    <t>法定外休日</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>開始</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>カイシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩1まで</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩1まで</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩1から</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩1から</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2まで</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩2まで</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2から</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩2から</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3まで</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩3まで</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>変数名</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>変数名</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>ヘンスウ</t>
     </rPh>
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>終了</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>開始</t>
+    </r>
+    <rPh sb="0" eb="2">
+      <t>カイシ</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>終了</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>シュウリョウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩1</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/03(日)</t>
+  </si>
+  <si>
+    <t>法定休日</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩1</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩2</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/04(月)</t>
+  </si>
+  <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩2</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩3</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/05(火)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩3</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>休憩4</t>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/06(水)</t>
+  </si>
+  <si>
+    <t>夏季休暇</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Yu Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>休憩4</t>
+    </r>
     <rPh sb="0" eb="2">
       <t>キュウケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業支援</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリーを選択</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>SJ-1部※SES-営業支援(原)</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業支援</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>23/09/07(木)</t>
+  </si>
+  <si>
+    <t>23/09/08(金)</t>
+  </si>
+  <si>
+    <t>23/09/09(土)</t>
+  </si>
+  <si>
+    <t>23/09/10(日)</t>
+  </si>
+  <si>
+    <t>23/09/11(月)</t>
+  </si>
+  <si>
+    <t>23/09/12(火)</t>
+  </si>
+  <si>
+    <t>23/09/13(水)</t>
+  </si>
+  <si>
+    <t>23/09/14(木)</t>
+  </si>
+  <si>
+    <t>23/09/15(金)</t>
+  </si>
+  <si>
+    <t>23/09/16(土)</t>
+  </si>
+  <si>
+    <t>23/09/17(日)</t>
+  </si>
+  <si>
+    <t>23/09/18(月)</t>
+  </si>
+  <si>
+    <t>23/09/19(火)</t>
+  </si>
+  <si>
+    <t>23/09/20(水)</t>
+  </si>
+  <si>
+    <t>23/09/21(木)</t>
+  </si>
+  <si>
+    <t>23/09/22(金)</t>
+  </si>
+  <si>
+    <t>23/09/23(土)</t>
+  </si>
+  <si>
+    <t>23/09/24(日)</t>
+  </si>
+  <si>
+    <t>23/09/25(月)</t>
+  </si>
+  <si>
+    <t>23/09/26(火)</t>
+  </si>
+  <si>
+    <t>23/09/27(水)</t>
+  </si>
+  <si>
+    <t>23/09/28(木)</t>
+  </si>
+  <si>
+    <t>23/09/29(金)</t>
+  </si>
+  <si>
+    <t>23/09/30(土)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -534,12 +624,28 @@
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -562,22 +668,6 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -877,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37:D37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -901,83 +991,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13">
         <f ca="1">TODAY()</f>
         <v>45173</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="17"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="17" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="17"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12">
         <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45170</v>
       </c>
-      <c r="C7" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="15"/>
-      <c r="E7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -986,546 +1072,384 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6">
-        <f t="shared" ref="B8:B35" ca="1" si="0">B7+1</f>
+      <c r="A8" s="6"/>
+      <c r="B8" s="12">
+        <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
         <v>45171</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="15"/>
-      <c r="E8" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45172</v>
       </c>
-      <c r="C9" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="15"/>
-      <c r="E9" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45173</v>
       </c>
-      <c r="C10" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="15"/>
-      <c r="E10" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45174</v>
       </c>
-      <c r="C11" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="15"/>
-      <c r="E11" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45175</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="15"/>
-      <c r="E12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45176</v>
       </c>
-      <c r="C13" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45177</v>
       </c>
-      <c r="C14" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45178</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45179</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45180</v>
       </c>
-      <c r="C17" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45181</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D18" s="15"/>
-      <c r="E18" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45182</v>
       </c>
-      <c r="C19" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="15"/>
-      <c r="E19" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45183</v>
       </c>
-      <c r="C20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45184</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45185</v>
       </c>
-      <c r="C22" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15"/>
-      <c r="E22" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45186</v>
       </c>
-      <c r="C23" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="14"/>
-      <c r="E23" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="6">
+      <c r="B24" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45187</v>
       </c>
-      <c r="C24" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D24" s="14"/>
-      <c r="E24" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="6">
+      <c r="B25" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45188</v>
       </c>
-      <c r="C25" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="14"/>
-      <c r="E25" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="6">
+      <c r="B26" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45189</v>
       </c>
-      <c r="C26" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="14"/>
-      <c r="E26" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="6">
+      <c r="B27" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45190</v>
       </c>
-      <c r="C27" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="14"/>
-      <c r="E27" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="6">
+      <c r="B28" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45191</v>
       </c>
-      <c r="C28" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="14"/>
-      <c r="E28" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="6">
+      <c r="B29" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45192</v>
       </c>
-      <c r="C29" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="14"/>
-      <c r="E29" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45193</v>
       </c>
-      <c r="C30" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="14"/>
-      <c r="E30" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="6">
+      <c r="B31" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45194</v>
       </c>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D31" s="14"/>
-      <c r="E31" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="6">
+      <c r="B32" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45195</v>
       </c>
-      <c r="C32" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" s="14"/>
-      <c r="E32" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="B33" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45196</v>
       </c>
-      <c r="C33" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D33" s="14"/>
-      <c r="E33" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45197</v>
       </c>
-      <c r="C34" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D34" s="14"/>
-      <c r="E34" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="B35" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45198</v>
       </c>
-      <c r="C35" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="D35" s="14"/>
-      <c r="E35" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="6"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="2"/>
+      <c r="B36" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45199</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C37:D37"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B7:F37">
@@ -1537,7 +1461,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{E7636C73-CC91-41FE-BF2D-17539A5C89B4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$H$7:$H$36</formula1>
     </dataValidation>
   </dataValidations>
@@ -1549,14 +1473,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
   <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26:F30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="5" max="6" width="8.6640625" style="13"/>
-  </cols>
   <sheetData>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
@@ -1568,104 +1489,101 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="13">
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="F2" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="Q2" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="L3" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="M3" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="11"/>
+        <v>19</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="17"/>
       <c r="Q3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" s="17">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="17" t="str">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="17">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11" t="b">
+      <c r="L4" s="17" t="b">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="11" t="b">
+      <c r="M4" s="17" t="b">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="17"/>
       <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="9">
+        <v>31</v>
+      </c>
+      <c r="R4" s="15">
         <v>0.5</v>
       </c>
-      <c r="S4" s="9">
-        <v>0.54166666666666663</v>
+      <c r="S4" s="15">
+        <v>0.54166666666666696</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1673,50 +1591,50 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="17" t="str">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I5" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I5" s="17">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="17">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K5" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K5" s="17">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="11" t="b">
+      <c r="L5" s="17">
         <f>IF(F5 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M5" s="17">
         <f>IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N5" s="17"/>
       <c r="Q5" t="s">
-        <v>58</v>
-      </c>
-      <c r="R5" s="9">
+        <v>35</v>
+      </c>
+      <c r="R5" s="15">
         <v>0.75</v>
       </c>
-      <c r="S5" s="9">
-        <v>0.77083333333333337</v>
+      <c r="S5" s="15">
+        <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1724,95 +1642,95 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="str">
         <f>IF(E6 &gt; $S$7, E6, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I6" s="17">
         <f>IF(F6 &gt; $R$4, $R$4, F6)</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="17">
         <f>IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K6" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K6" s="17">
         <f>IF(F6 &gt; $R$5, $R$5, F6)</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="11" t="b">
+      <c r="L6" s="17">
         <f>IF(F6 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M6" s="17">
         <f>IF(L6 = FALSE, FALSE,IF(F6 &gt; $R$6, $R$6, F6))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N6" s="17"/>
       <c r="Q6" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="9">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="S6" s="12">
-        <v>2.0833333333333332E-2</v>
+        <v>37</v>
+      </c>
+      <c r="R6" s="15">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="S6" s="18">
+        <v>2.0833333333333301E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="17">
         <f>IF(E7 &gt; $S$7, E7, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <f>IF(F7 &gt; $R$4, $R$4, F7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="17" t="str">
         <f>IF(F7 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="17">
         <f>IF(F7 &gt; $R$5, $R$5, F7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11" t="b">
+      <c r="L7" s="17" t="b">
         <f>IF(F7 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11" t="b">
+      <c r="M7" s="17" t="b">
         <f>IF(L7 = FALSE, FALSE,IF(F7 &gt; $R$6, $R$6, F7))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="17"/>
       <c r="Q7" t="s">
-        <v>60</v>
-      </c>
-      <c r="R7" s="9">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="S7" s="9">
+        <v>40</v>
+      </c>
+      <c r="R7" s="15">
+        <v>0.20833333333333301</v>
+      </c>
+      <c r="S7" s="15">
         <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1820,41 +1738,41 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="str">
         <f>IF(E8 &gt; $S$7, E8, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I8" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I8" s="17">
         <f>IF(F8 &gt; $R$4, $R$4, F8)</f>
         <v>0.5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="17">
         <f>IF(F8 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
-        <v>0.54166666666666663</v>
-      </c>
-      <c r="K8" s="11">
+        <v>0.54166666666666696</v>
+      </c>
+      <c r="K8" s="17">
         <f>IF(F8 &gt; $R$5, $R$5, F8)</f>
         <v>0.75</v>
       </c>
-      <c r="L8" s="11" t="b">
+      <c r="L8" s="17">
         <f>IF(F8 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M8" s="17">
         <f>IF(L8 = FALSE, FALSE,IF(F8 &gt; $R$6, $R$6, F8))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1862,32 +1780,32 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0.75</v>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1895,16 +1813,16 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0.75</v>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1912,16 +1830,16 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0.79166666666666663</v>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1929,16 +1847,16 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="13">
-        <v>0.75</v>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1946,16 +1864,16 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F15" s="13">
-        <v>0.75</v>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1963,40 +1881,40 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F16" s="13">
-        <v>0.75</v>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2004,16 +1922,16 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F20" s="13">
-        <v>0.75</v>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2021,16 +1939,16 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0.75</v>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2038,16 +1956,16 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F22" s="13">
-        <v>0.75</v>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2055,32 +1973,32 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F23" s="13">
-        <v>0.75</v>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2088,16 +2006,16 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F26" s="13">
-        <v>0.75</v>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -2105,16 +2023,16 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F27" s="13">
-        <v>0.75</v>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -2122,16 +2040,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.75</v>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -2139,16 +2057,16 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F29" s="13">
-        <v>0.75</v>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -2156,19 +2074,19 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="13">
-        <v>0.375</v>
-      </c>
-      <c r="F30" s="13">
-        <v>0.75</v>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8469EB83-2828-479D-A54A-9F4D60A88D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{8469EB83-2828-479D-A54A-9F4D60A88D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EFB22C-7EAE-4973-9231-084B532AC285}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
   <si>
     <r>
       <rPr>
@@ -231,9 +231,6 @@
     <t>通常勤務</t>
   </si>
   <si>
-    <t>8:57</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -420,12 +417,6 @@
     <t>23/09/04(月)</t>
   </si>
   <si>
-    <t>9:00</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -550,17 +541,102 @@
   </si>
   <si>
     <t>23/09/30(土)</t>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カテゴリーを選択</t>
+    <rPh sb="6" eb="8">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="0"/>
+  </si>
+  <si>
+    <t>SJ-1部※SES-営業支援(原)</t>
+    <rPh sb="4" eb="5">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>シエン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>営業支援</t>
+    <rPh sb="0" eb="2">
+      <t>エイギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勤務種類</t>
+    <rPh sb="0" eb="2">
+      <t>キンム</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シュルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>就業時間帯</t>
+    <rPh sb="0" eb="2">
+      <t>シュウギョウ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出勤時刻</t>
+    <rPh sb="0" eb="2">
+      <t>シュッキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>退勤時刻</t>
+    <rPh sb="0" eb="2">
+      <t>タイキン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="180" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -622,30 +698,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -668,11 +728,44 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="6" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -967,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -991,79 +1084,83 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1">
-      <c r="A2" s="6"/>
+      <c r="A2" s="1"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="6"/>
-      <c r="B3" s="13">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7">
         <f ca="1">TODAY()</f>
         <v>45173</v>
       </c>
-      <c r="C3" s="16"/>
-      <c r="D3" s="4" t="s">
+      <c r="C3" s="10"/>
+      <c r="D3" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="6"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="1"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="16"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="6"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="6" t="s">
+      <c r="D6" s="17"/>
+      <c r="E6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="6"/>
-      <c r="B7" s="12">
+      <c r="A7" s="1"/>
+      <c r="B7" s="6">
         <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45170</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="C7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G7" s="1"/>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -1072,387 +1169,566 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="6"/>
-      <c r="B8" s="12">
+      <c r="A8" s="1"/>
+      <c r="B8" s="6">
         <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
         <v>45171</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
+      <c r="C8" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14"/>
+      <c r="E8" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="6"/>
-      <c r="B9" s="12">
+      <c r="A9" s="1"/>
+      <c r="B9" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45172</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="C9" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="14"/>
+      <c r="E9" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="6"/>
-      <c r="B10" s="12">
+      <c r="A10" s="1"/>
+      <c r="B10" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45173</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="C10" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="14"/>
+      <c r="E10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="6"/>
-      <c r="B11" s="12">
+      <c r="A11" s="1"/>
+      <c r="B11" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45174</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="C11" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="14"/>
+      <c r="E11" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="12">
+      <c r="A12" s="1"/>
+      <c r="B12" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45175</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="C12" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="14"/>
+      <c r="E12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="6"/>
-      <c r="B13" s="12">
+      <c r="A13" s="1"/>
+      <c r="B13" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45176</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="C13" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6"/>
-      <c r="B14" s="12">
+      <c r="A14" s="1"/>
+      <c r="B14" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45177</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="C14" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="12">
+      <c r="A15" s="1"/>
+      <c r="B15" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45178</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="C15" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="12">
+      <c r="A16" s="1"/>
+      <c r="B16" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45179</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="C16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="14"/>
+      <c r="E16" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="6"/>
-      <c r="B17" s="12">
+      <c r="A17" s="1"/>
+      <c r="B17" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45180</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="C17" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="6"/>
-      <c r="B18" s="12">
+      <c r="A18" s="1"/>
+      <c r="B18" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45181</v>
       </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="C18" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="6"/>
-      <c r="B19" s="12">
+      <c r="A19" s="1"/>
+      <c r="B19" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45182</v>
       </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="C19" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="12">
+      <c r="B20" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45183</v>
       </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="C20" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="12">
+      <c r="B21" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45184</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="C21" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="14"/>
+      <c r="E21" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="12">
+      <c r="B22" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45185</v>
       </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
+      <c r="C22" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="14"/>
+      <c r="E22" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="12">
+      <c r="B23" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45186</v>
       </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
+      <c r="C23" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="12">
+      <c r="B24" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45187</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
+      <c r="C24" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="12">
+      <c r="B25" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45188</v>
       </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
+      <c r="C25" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="12">
+      <c r="B26" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45189</v>
       </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
+      <c r="C26" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="12">
+      <c r="B27" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45190</v>
       </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
+      <c r="C27" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="12">
+      <c r="B28" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45191</v>
       </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
+      <c r="C28" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="12">
+      <c r="B29" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45192</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
+      <c r="C29" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="12">
+      <c r="B30" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45193</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
+      <c r="C30" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="12">
+      <c r="B31" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45194</v>
       </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
+      <c r="C31" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="12">
+      <c r="B32" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45195</v>
       </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
+      <c r="C32" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="12">
+      <c r="B33" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45196</v>
       </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
+      <c r="C33" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="12">
+      <c r="B34" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45197</v>
       </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
+      <c r="C34" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" s="13"/>
+      <c r="E34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="12">
+      <c r="B35" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45198</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
+      <c r="C35" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="12">
+      <c r="B36" s="6">
         <f t="shared" ca="1" si="0"/>
         <v>45199</v>
       </c>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
+      <c r="C36" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="13"/>
+      <c r="E36" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="12">
-        <f t="shared" ca="1" si="0"/>
-        <v>45200</v>
-      </c>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
     <mergeCell ref="C28:D28"/>
     <mergeCell ref="C29:D29"/>
     <mergeCell ref="C30:D30"/>
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B7:F37">
+  <conditionalFormatting sqref="B7:B37">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>NOT(MONTH($B6)=MONTH($B$6))</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="4">
+      <formula>OR(WEEKDAY($B7)=1,WEEKDAY($B7)=7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C7:F37">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(MONTH($B6)=MONTH($B$6))</formula>
     </cfRule>
@@ -1461,7 +1737,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{984E7151-7AE1-4075-8A4B-3DF5AF506A3D}">
       <formula1>$H$7:$H$36</formula1>
     </dataValidation>
   </dataValidations>
@@ -1471,14 +1747,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
-  <dimension ref="B2:S31"/>
+  <dimension ref="B1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="5" max="6" width="8.6640625" style="19"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="2:19">
+      <c r="B1" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>13</v>
@@ -1489,101 +1785,104 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="19">
+        <v>0.37291666666666662</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="Q2" t="s">
         <v>16</v>
-      </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-      <c r="Q2" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="I3" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="J3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="K3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="L3" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="11"/>
+      <c r="Q3" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="17"/>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>26</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>27</v>
-      </c>
-      <c r="S3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="17">
+      <c r="H4" s="11">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="11">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="17" t="str">
+      <c r="J4" s="11" t="str">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="11">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="17" t="b">
+      <c r="L4" s="11" t="b">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="b">
+      <c r="M4" s="11" t="b">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="17"/>
+      <c r="N4" s="11"/>
       <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" s="15">
+        <v>30</v>
+      </c>
+      <c r="R4" s="9">
         <v>0.5</v>
       </c>
-      <c r="S4" s="15">
+      <c r="S4" s="9">
         <v>0.54166666666666696</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1591,50 +1890,50 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" s="17" t="str">
+      <c r="E5" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F5" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H5" s="11">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I5" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I5" s="11">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="17">
+      <c r="J5" s="11">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="11">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="17">
+      <c r="L5" s="11" t="b">
         <f>IF(F5 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="M5" s="17">
+        <v>0</v>
+      </c>
+      <c r="M5" s="11" t="b">
         <f>IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="N5" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N5" s="11"/>
       <c r="Q5" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" s="15">
+        <v>32</v>
+      </c>
+      <c r="R5" s="9">
         <v>0.75</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="9">
         <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1642,95 +1941,95 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-      <c r="F6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="17" t="str">
+      <c r="E6" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H6" s="11">
         <f>IF(E6 &gt; $S$7, E6, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I6" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I6" s="11">
         <f>IF(F6 &gt; $R$4, $R$4, F6)</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="17">
+      <c r="J6" s="11">
         <f>IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="11">
         <f>IF(F6 &gt; $R$5, $R$5, F6)</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="17">
+      <c r="L6" s="11" t="b">
         <f>IF(F6 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="M6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="11" t="b">
         <f>IF(L6 = FALSE, FALSE,IF(F6 &gt; $R$6, $R$6, F6))</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="11"/>
+      <c r="Q6" t="s">
+        <v>34</v>
+      </c>
+      <c r="R6" s="9">
         <v>0.97916666666666696</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="Q6" t="s">
-        <v>37</v>
-      </c>
-      <c r="R6" s="15">
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="S6" s="18">
+      <c r="S6" s="12">
         <v>2.0833333333333301E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="11">
         <f>IF(E7 &gt; $S$7, E7, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="11">
         <f>IF(F7 &gt; $R$4, $R$4, F7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="17" t="str">
+      <c r="J7" s="11" t="str">
         <f>IF(F7 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K7" s="17">
+      <c r="K7" s="11">
         <f>IF(F7 &gt; $R$5, $R$5, F7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="17" t="b">
+      <c r="L7" s="11" t="b">
         <f>IF(F7 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="17" t="b">
+      <c r="M7" s="11" t="b">
         <f>IF(L7 = FALSE, FALSE,IF(F7 &gt; $R$6, $R$6, F7))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="17"/>
+      <c r="N7" s="11"/>
       <c r="Q7" t="s">
-        <v>40</v>
-      </c>
-      <c r="R7" s="15">
+        <v>37</v>
+      </c>
+      <c r="R7" s="9">
         <v>0.20833333333333301</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S7" s="9">
         <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -1738,41 +2037,41 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="17" t="str">
+      <c r="E8" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F8" s="19">
+        <v>0.75</v>
+      </c>
+      <c r="H8" s="11">
         <f>IF(E8 &gt; $S$7, E8, $S$7)</f>
-        <v>9:00</v>
-      </c>
-      <c r="I8" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="I8" s="11">
         <f>IF(F8 &gt; $R$4, $R$4, F8)</f>
         <v>0.5</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="11">
         <f>IF(F8 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K8" s="17">
+      <c r="K8" s="11">
         <f>IF(F8 &gt; $R$5, $R$5, F8)</f>
         <v>0.75</v>
       </c>
-      <c r="L8" s="17">
+      <c r="L8" s="11" t="b">
         <f>IF(F8 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0.77083333333333304</v>
-      </c>
-      <c r="M8" s="17">
+        <v>0</v>
+      </c>
+      <c r="M8" s="11" t="b">
         <f>IF(L8 = FALSE, FALSE,IF(F8 &gt; $R$6, $R$6, F8))</f>
-        <v>0.97916666666666696</v>
-      </c>
-      <c r="N8" s="17"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="11"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -1780,32 +2079,32 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
+      <c r="E9" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -1813,16 +2112,16 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F12" t="s">
-        <v>34</v>
+      <c r="E12" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -1830,16 +2129,16 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F13" t="s">
-        <v>34</v>
+      <c r="E13" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -1847,16 +2146,16 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" t="s">
-        <v>34</v>
+      <c r="E14" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -1864,16 +2163,16 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s">
-        <v>34</v>
+      <c r="E15" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -1881,40 +2180,40 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" t="s">
-        <v>33</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
+      <c r="E16" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F16" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -1922,16 +2221,16 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" t="s">
-        <v>34</v>
+      <c r="E20" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F20" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -1939,16 +2238,16 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F21" t="s">
-        <v>34</v>
+      <c r="E21" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F21" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -1956,16 +2255,16 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
-      <c r="F22" t="s">
-        <v>34</v>
+      <c r="E22" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F22" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -1973,32 +2272,32 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" t="s">
-        <v>33</v>
-      </c>
-      <c r="F23" t="s">
-        <v>34</v>
+      <c r="E23" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F23" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2006,16 +2305,16 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F26" t="s">
-        <v>34</v>
+      <c r="E26" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F26" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -2023,16 +2322,16 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" t="s">
-        <v>33</v>
-      </c>
-      <c r="F27" t="s">
-        <v>34</v>
+      <c r="E27" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F27" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -2040,16 +2339,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" t="s">
-        <v>33</v>
-      </c>
-      <c r="F28" t="s">
-        <v>34</v>
+      <c r="E28" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F28" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -2057,16 +2356,16 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" t="s">
-        <v>34</v>
+      <c r="E29" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F29" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -2074,19 +2373,19 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" t="s">
-        <v>34</v>
+      <c r="E30" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="F30" s="19">
+        <v>0.75</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="40" documentId="13_ncr:1_{8469EB83-2828-479D-A54A-9F4D60A88D6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{79EFB22C-7EAE-4973-9231-084B532AC285}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80FE9F95-C3A0-4350-868E-4647A239626B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="18680" windowHeight="9420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="65">
   <si>
     <r>
       <rPr>
@@ -231,6 +231,9 @@
     <t>通常勤務</t>
   </si>
   <si>
+    <t>8:57</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -417,6 +420,12 @@
     <t>23/09/04(月)</t>
   </si>
   <si>
+    <t>9:00</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -541,102 +550,17 @@
   </si>
   <si>
     <t>23/09/30(土)</t>
-  </si>
-  <si>
-    <t>営業支援</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>カテゴリーを選択</t>
-    <rPh sb="6" eb="8">
-      <t>センタク</t>
-    </rPh>
-    <phoneticPr fontId="0"/>
-  </si>
-  <si>
-    <t>SJ-1部※SES-営業支援(原)</t>
-    <rPh sb="4" eb="5">
-      <t>ブ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>シエン</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>ハラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>営業支援</t>
-    <rPh sb="0" eb="2">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シエン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>勤務種類</t>
-    <rPh sb="0" eb="2">
-      <t>キンム</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>シュルイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>就業時間帯</t>
-    <rPh sb="0" eb="2">
-      <t>シュウギョウ</t>
-    </rPh>
-    <rPh sb="2" eb="5">
-      <t>ジカンタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>出勤時刻</t>
-    <rPh sb="0" eb="2">
-      <t>シュッキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>退勤時刻</t>
-    <rPh sb="0" eb="2">
-      <t>タイキン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジコク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0000/00"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
     <numFmt numFmtId="178" formatCode="yyyy/mm"/>
     <numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="180" formatCode="hh:mm"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -698,14 +622,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -728,44 +668,11 @@
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="6" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1060,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1084,83 +991,79 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="19" customHeight="1">
-      <c r="A2" s="1"/>
+      <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="1"/>
-      <c r="B3" s="7">
+      <c r="A3" s="6"/>
+      <c r="B3" s="13">
         <f ca="1">TODAY()</f>
         <v>45173</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="16" t="s">
+      <c r="C3" s="16"/>
+      <c r="D3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="16"/>
+      <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="1"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="16" t="s">
+      <c r="A4" s="6"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="16"/>
+      <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="1"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="6"/>
+      <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="1"/>
-      <c r="B7" s="6">
+      <c r="A7" s="6"/>
+      <c r="B7" s="12">
         <f ca="1">IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</f>
         <v>45170</v>
       </c>
-      <c r="C7" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="1"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" t="s">
         <v>11</v>
       </c>
@@ -1169,566 +1072,387 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="1"/>
-      <c r="B8" s="6">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12">
         <f t="shared" ref="B8:B37" ca="1" si="0">B7+1</f>
         <v>45171</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="1"/>
-      <c r="B9" s="6">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45172</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="1"/>
-      <c r="B10" s="6">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45173</v>
       </c>
-      <c r="C10" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="1"/>
-      <c r="B11" s="6">
+      <c r="A11" s="6"/>
+      <c r="B11" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45174</v>
       </c>
-      <c r="C11" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="1"/>
-      <c r="B12" s="6">
+      <c r="A12" s="6"/>
+      <c r="B12" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45175</v>
       </c>
-      <c r="C12" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="1"/>
-      <c r="B13" s="6">
+      <c r="A13" s="6"/>
+      <c r="B13" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45176</v>
       </c>
-      <c r="C13" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="1"/>
-      <c r="B14" s="6">
+      <c r="A14" s="6"/>
+      <c r="B14" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45177</v>
       </c>
-      <c r="C14" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="1"/>
-      <c r="B15" s="6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45178</v>
       </c>
-      <c r="C15" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="1"/>
-      <c r="B16" s="6">
+      <c r="A16" s="6"/>
+      <c r="B16" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45179</v>
       </c>
-      <c r="C16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="1"/>
-      <c r="B17" s="6">
+      <c r="A17" s="6"/>
+      <c r="B17" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45180</v>
       </c>
-      <c r="C17" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6">
+      <c r="A18" s="6"/>
+      <c r="B18" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45181</v>
       </c>
-      <c r="C18" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6">
+      <c r="A19" s="6"/>
+      <c r="B19" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45182</v>
       </c>
-      <c r="C19" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="B20" s="6">
+      <c r="B20" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45183</v>
       </c>
-      <c r="C20" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="B21" s="6">
+      <c r="B21" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45184</v>
       </c>
-      <c r="C21" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="B22" s="6">
+      <c r="B22" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45185</v>
       </c>
-      <c r="C22" s="14" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="B23" s="6">
+      <c r="B23" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45186</v>
       </c>
-      <c r="C23" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="B24" s="6">
+      <c r="B24" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45187</v>
       </c>
-      <c r="C24" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="B25" s="6">
+      <c r="B25" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45188</v>
       </c>
-      <c r="C25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25" s="13"/>
-      <c r="E25" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="B26" s="6">
+      <c r="B26" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45189</v>
       </c>
-      <c r="C26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="13"/>
-      <c r="E26" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="B27" s="6">
+      <c r="B27" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45190</v>
       </c>
-      <c r="C27" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="13"/>
-      <c r="E27" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="B28" s="6">
+      <c r="B28" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45191</v>
       </c>
-      <c r="C28" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D28" s="13"/>
-      <c r="E28" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="B29" s="6">
+      <c r="B29" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45192</v>
       </c>
-      <c r="C29" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="13"/>
-      <c r="E29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="B30" s="6">
+      <c r="B30" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45193</v>
       </c>
-      <c r="C30" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="B31" s="6">
+      <c r="B31" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45194</v>
       </c>
-      <c r="C31" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D31" s="13"/>
-      <c r="E31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="B32" s="6">
+      <c r="B32" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45195</v>
       </c>
-      <c r="C32" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D32" s="13"/>
-      <c r="E32" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
     </row>
     <row r="33" spans="2:6">
-      <c r="B33" s="6">
+      <c r="B33" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45196</v>
       </c>
-      <c r="C33" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" s="13"/>
-      <c r="E33" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
     </row>
     <row r="34" spans="2:6">
-      <c r="B34" s="6">
+      <c r="B34" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45197</v>
       </c>
-      <c r="C34" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" s="13"/>
-      <c r="E34" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
     </row>
     <row r="35" spans="2:6">
-      <c r="B35" s="6">
+      <c r="B35" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45198</v>
       </c>
-      <c r="C35" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" s="13"/>
-      <c r="E35" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>64</v>
-      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
     </row>
     <row r="36" spans="2:6">
-      <c r="B36" s="6">
+      <c r="B36" s="12">
         <f t="shared" ca="1" si="0"/>
         <v>45199</v>
       </c>
-      <c r="C36" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D36" s="13"/>
-      <c r="E36" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>11</v>
-      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
     </row>
     <row r="37" spans="2:6">
-      <c r="B37" s="6"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="13"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="2"/>
+      <c r="B37" s="12">
+        <f t="shared" ca="1" si="0"/>
+        <v>45200</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="C36:D36"/>
     <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C36:D36"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="B7:B37">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>NOT(MONTH($B6)=MONTH($B$6))</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4">
-      <formula>OR(WEEKDAY($B7)=1,WEEKDAY($B7)=7)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:F37">
+  <conditionalFormatting sqref="B7:F37">
     <cfRule type="expression" dxfId="1" priority="1">
       <formula>NOT(MONTH($B6)=MONTH($B$6))</formula>
     </cfRule>
@@ -1737,7 +1461,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{984E7151-7AE1-4075-8A4B-3DF5AF506A3D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F37" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>$H$7:$H$36</formula1>
     </dataValidation>
   </dataValidations>
@@ -1747,34 +1471,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D112D9E-0DB1-4747-AB6C-73CE8930DFF9}">
-  <dimension ref="B1:S31"/>
+  <dimension ref="B2:S31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <cols>
-    <col min="5" max="6" width="8.6640625" style="19"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="2:19">
-      <c r="B1" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="C1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>70</v>
-      </c>
-    </row>
     <row r="2" spans="2:19">
       <c r="B2" t="s">
         <v>13</v>
@@ -1785,104 +1489,101 @@
       <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="19">
-        <v>0.37291666666666662</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
       <c r="Q2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="2:19">
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="H3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="I3" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="K3" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="L3" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="M3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="17"/>
       <c r="Q3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="2:19">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="11">
+        <v>30</v>
+      </c>
+      <c r="H4" s="17">
         <f>IF(E4 &gt; $S$7, E4, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="17">
         <f>IF(F4 &gt; $R$4, $R$4, F4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="11" t="str">
+      <c r="J4" s="17" t="str">
         <f>IF(F4 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="17">
         <f>IF(F4 &gt; $R$5, $R$5, F4)</f>
         <v>0</v>
       </c>
-      <c r="L4" s="11" t="b">
+      <c r="L4" s="17" t="b">
         <f>IF(F4 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M4" s="11" t="b">
+      <c r="M4" s="17" t="b">
         <f>IF(L4 = FALSE, FALSE,IF(F4 &gt; $R$6, $R$6, F4))</f>
         <v>0</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="17"/>
       <c r="Q4" t="s">
-        <v>30</v>
-      </c>
-      <c r="R4" s="9">
+        <v>31</v>
+      </c>
+      <c r="R4" s="15">
         <v>0.5</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="15">
         <v>0.54166666666666696</v>
       </c>
     </row>
     <row r="5" spans="2:19">
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
         <v>14</v>
@@ -1890,50 +1591,50 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H5" s="17" t="str">
         <f>IF(E5 &gt; $S$7, E5, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I5" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I5" s="17">
         <f>IF(F5 &gt; $R$4, $R$4, F5)</f>
         <v>0.5</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="17">
         <f>IF(F5 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="17">
         <f>IF(F5 &gt; $R$5, $R$5, F5)</f>
         <v>0.75</v>
       </c>
-      <c r="L5" s="11" t="b">
+      <c r="L5" s="17">
         <f>IF(F5 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M5" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M5" s="17">
         <f>IF(L5 = FALSE, FALSE,IF(F5 &gt; $R$6, $R$6, F5))</f>
-        <v>0</v>
-      </c>
-      <c r="N5" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N5" s="17"/>
       <c r="Q5" t="s">
-        <v>32</v>
-      </c>
-      <c r="R5" s="9">
+        <v>35</v>
+      </c>
+      <c r="R5" s="15">
         <v>0.75</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="15">
         <v>0.77083333333333304</v>
       </c>
     </row>
     <row r="6" spans="2:19">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
         <v>14</v>
@@ -1941,95 +1642,95 @@
       <c r="D6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H6" s="11">
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="17" t="str">
         <f>IF(E6 &gt; $S$7, E6, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I6" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I6" s="17">
         <f>IF(F6 &gt; $R$4, $R$4, F6)</f>
         <v>0.5</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="17">
         <f>IF(F6 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="17">
         <f>IF(F6 &gt; $R$5, $R$5, F6)</f>
         <v>0.75</v>
       </c>
-      <c r="L6" s="11" t="b">
+      <c r="L6" s="17">
         <f>IF(F6 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M6" s="17">
         <f>IF(L6 = FALSE, FALSE,IF(F6 &gt; $R$6, $R$6, F6))</f>
-        <v>0</v>
-      </c>
-      <c r="N6" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N6" s="17"/>
       <c r="Q6" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="9">
+        <v>37</v>
+      </c>
+      <c r="R6" s="15">
         <v>0.97916666666666696</v>
       </c>
-      <c r="S6" s="12">
+      <c r="S6" s="18">
         <v>2.0833333333333301E-2</v>
       </c>
     </row>
     <row r="7" spans="2:19">
       <c r="B7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="17">
         <f>IF(E7 &gt; $S$7, E7, $S$7)</f>
         <v>0.375</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="17">
         <f>IF(F7 &gt; $R$4, $R$4, F7)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="11" t="str">
+      <c r="J7" s="17" t="str">
         <f>IF(F7 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>昼休憩後はいません</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="17">
         <f>IF(F7 &gt; $R$5, $R$5, F7)</f>
         <v>0</v>
       </c>
-      <c r="L7" s="11" t="b">
+      <c r="L7" s="17" t="b">
         <f>IF(F7 &gt; $S$5, $S$5, FALSE)</f>
         <v>0</v>
       </c>
-      <c r="M7" s="11" t="b">
+      <c r="M7" s="17" t="b">
         <f>IF(L7 = FALSE, FALSE,IF(F7 &gt; $R$6, $R$6, F7))</f>
         <v>0</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="17"/>
       <c r="Q7" t="s">
-        <v>37</v>
-      </c>
-      <c r="R7" s="9">
+        <v>40</v>
+      </c>
+      <c r="R7" s="15">
         <v>0.20833333333333301</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="15">
         <v>0.375</v>
       </c>
     </row>
     <row r="8" spans="2:19">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -2037,41 +1738,41 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F8" s="19">
-        <v>0.75</v>
-      </c>
-      <c r="H8" s="11">
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="17" t="str">
         <f>IF(E8 &gt; $S$7, E8, $S$7)</f>
-        <v>0.375</v>
-      </c>
-      <c r="I8" s="11">
+        <v>9:00</v>
+      </c>
+      <c r="I8" s="17">
         <f>IF(F8 &gt; $R$4, $R$4, F8)</f>
         <v>0.5</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="17">
         <f>IF(F8 &gt; $S$4, $S$4, "昼休憩後はいません")</f>
         <v>0.54166666666666696</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="17">
         <f>IF(F8 &gt; $R$5, $R$5, F8)</f>
         <v>0.75</v>
       </c>
-      <c r="L8" s="11" t="b">
+      <c r="L8" s="17">
         <f>IF(F8 &gt; $S$5, $S$5, FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="M8" s="11" t="b">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="M8" s="17">
         <f>IF(L8 = FALSE, FALSE,IF(F8 &gt; $R$6, $R$6, F8))</f>
-        <v>0</v>
-      </c>
-      <c r="N8" s="11"/>
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="N8" s="17"/>
     </row>
     <row r="9" spans="2:19">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C9" t="s">
         <v>14</v>
@@ -2079,32 +1780,32 @@
       <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F9" s="19">
-        <v>0.75</v>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="2:19">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="2:19">
       <c r="B11" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="2:19">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
         <v>14</v>
@@ -2112,16 +1813,16 @@
       <c r="D12" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F12" s="19">
-        <v>0.75</v>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="2:19">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C13" t="s">
         <v>14</v>
@@ -2129,16 +1830,16 @@
       <c r="D13" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F13" s="19">
-        <v>0.75</v>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="2:19">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C14" t="s">
         <v>14</v>
@@ -2146,16 +1847,16 @@
       <c r="D14" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F14" s="19">
-        <v>0.75</v>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="2:19">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>14</v>
@@ -2163,16 +1864,16 @@
       <c r="D15" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F15" s="19">
-        <v>0.75</v>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C16" t="s">
         <v>14</v>
@@ -2180,40 +1881,40 @@
       <c r="D16" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F16" s="19">
-        <v>0.75</v>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="2:6">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="C19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="C20" t="s">
         <v>14</v>
@@ -2221,16 +1922,16 @@
       <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="E20" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F20" s="19">
-        <v>0.75</v>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="B21" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C21" t="s">
         <v>14</v>
@@ -2238,16 +1939,16 @@
       <c r="D21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F21" s="19">
-        <v>0.75</v>
+      <c r="E21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="2:6">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C22" t="s">
         <v>14</v>
@@ -2255,16 +1956,16 @@
       <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F22" s="19">
-        <v>0.75</v>
+      <c r="E22" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:6">
       <c r="B23" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C23" t="s">
         <v>14</v>
@@ -2272,32 +1973,32 @@
       <c r="D23" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F23" s="19">
-        <v>0.75</v>
+      <c r="E23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="2:6">
       <c r="B24" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="2:6">
       <c r="B25" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="2:6">
       <c r="B26" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>14</v>
@@ -2305,16 +2006,16 @@
       <c r="D26" t="s">
         <v>15</v>
       </c>
-      <c r="E26" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F26" s="19">
-        <v>0.75</v>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="2:6">
       <c r="B27" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
         <v>14</v>
@@ -2322,16 +2023,16 @@
       <c r="D27" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F27" s="19">
-        <v>0.75</v>
+      <c r="E27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="2:6">
       <c r="B28" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
         <v>14</v>
@@ -2339,16 +2040,16 @@
       <c r="D28" t="s">
         <v>15</v>
       </c>
-      <c r="E28" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F28" s="19">
-        <v>0.75</v>
+      <c r="E28" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="2:6">
       <c r="B29" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C29" t="s">
         <v>14</v>
@@ -2356,16 +2057,16 @@
       <c r="D29" t="s">
         <v>15</v>
       </c>
-      <c r="E29" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F29" s="19">
-        <v>0.75</v>
+      <c r="E29" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="2:6">
       <c r="B30" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>14</v>
@@ -2373,19 +2074,19 @@
       <c r="D30" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="19">
-        <v>0.375</v>
-      </c>
-      <c r="F30" s="19">
-        <v>0.75</v>
+      <c r="E30" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="2:6">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B77631-9FF2-4E3C-97C6-53FA4F193DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF39A7-6F9A-4FED-ABFF-08BE4B39D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <x:si>
     <x:r>
       <x:rPr>
@@ -374,205 +374,142 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>23/08/01(火)</x:t>
+    <x:t>23/09/01(金)</x:t>
   </x:si>
   <x:si>
     <x:t>出勤</x:t>
   </x:si>
   <x:si>
+    <x:t>ﾃﾚﾜ9-18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:57</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:21</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/02(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法定外休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/03(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>法定休日</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/04(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>出勤、ﾃﾚ9-18</x:t>
+  </x:si>
+  <x:si>
     <x:t>通常勤務</x:t>
   </x:si>
   <x:si>
-    <x:t>08:49</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:32</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/02(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ﾃﾚﾜ9-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:57</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/03(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:16</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/04(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:08</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/05(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法定外休日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/06(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>法定休日</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/07(月)</x:t>
-  </x:si>
-  <x:si>
     <x:t>09:00</x:t>
   </x:si>
   <x:si>
     <x:t>18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>23/08/08(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:44</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/09(水)</x:t>
+    <x:t>23/09/05(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:53</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:41</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/06(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>夏季休暇</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/07(木)</x:t>
   </x:si>
   <x:si>
     <x:t>08:54</x:t>
   </x:si>
   <x:si>
-    <x:t>18:01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/10(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:43</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:38</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/11(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/12(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/13(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/14(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:58</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/15(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:09</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/16(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:52</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:30</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/17(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/18(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:50</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:07</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/19(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/20(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/21(月)</x:t>
+    <x:t>23/09/08(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/09(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/10(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/11(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/12(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/13(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/14(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/15(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/16(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/17(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/18(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/19(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/20(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/21(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/22(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/23(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/24(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/25(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/26(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/27(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/28(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/29(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/09/30(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/31(木)</x:t>
   </x:si>
   <x:si>
     <x:t>08:55</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/22(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:48</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:33</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/23(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/24(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:51</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:47</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/25(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>19:35</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/26(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/27(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/28(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:46</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/29(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20:31</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/30(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:26</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/08/31(木)</x:t>
   </x:si>
   <x:si>
     <x:t>20:17</x:t>
@@ -582,13 +519,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
-  <x:numFmts count="6">
+  <x:numFmts count="5">
     <x:numFmt numFmtId="176" formatCode="0000/00"/>
-    <x:numFmt numFmtId="177" formatCode="yyyy/mm/dd\(aaa\)"/>
-    <x:numFmt numFmtId="178" formatCode="yyyy/mm"/>
-    <x:numFmt numFmtId="179" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
-    <x:numFmt numFmtId="180" formatCode="hh:mm"/>
-    <x:numFmt numFmtId="181" formatCode="yy/mm/dd\(aaa\)"/>
+    <x:numFmt numFmtId="177" formatCode="yyyy/mm"/>
+    <x:numFmt numFmtId="178" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <x:numFmt numFmtId="179" formatCode="hh:mm"/>
+    <x:numFmt numFmtId="180" formatCode="yy/mm/dd\(aaa\)"/>
   </x:numFmts>
   <x:fonts count="4">
     <x:font>
@@ -654,7 +590,7 @@
       <x:diagonal/>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="14">
+  <x:cellStyleXfs count="13">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
@@ -662,33 +598,30 @@
     <x:xf numFmtId="176" fontId="0" fillId="2" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="177" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="176" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
     <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="178" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="176" fontId="0" fillId="4" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="14" fontId="0" fillId="3" borderId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -696,7 +629,7 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="27">
+  <x:cellXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <x:xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <x:alignment horizontal="center"/>
@@ -728,28 +661,25 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <x:alignment vertical="center"/>
-    </x:xf>
-    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment horizontal="center" wrapText="1"/>
     </x:xf>
     <x:xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <x:xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <x:alignment wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <x:xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="46" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <x:xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <x:xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <x:alignment vertical="center"/>
     </x:xf>
     <x:xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="178" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="177" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1076,7 +1006,7 @@
   <x:dimension ref="A1:H37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="G7" sqref="G7"/>
+      <x:selection activeCell="F4" sqref="F4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -1106,39 +1036,37 @@
       <x:c r="C2" s="9" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D2" s="20" t="s">
+      <x:c r="D2" s="19" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E2" s="20" t="s"/>
+      <x:c r="E2" s="19" t="s"/>
     </x:row>
     <x:row r="3" spans="1:10">
       <x:c r="A3" s="6" t="s"/>
-      <x:c r="B3" s="12">
+      <x:c r="B3" s="11">
         <x:f>TODAY()</x:f>
       </x:c>
-      <x:c r="C3" s="21">
-        <x:v>45139</x:v>
-      </x:c>
-      <x:c r="D3" s="22" t="s">
+      <x:c r="C3" s="20" t="s"/>
+      <x:c r="D3" s="21" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="E3" s="22" t="s"/>
+      <x:c r="E3" s="21" t="s"/>
     </x:row>
     <x:row r="4" spans="1:10">
       <x:c r="A4" s="6" t="s"/>
-      <x:c r="B4" s="12" t="s"/>
+      <x:c r="B4" s="11" t="s"/>
       <x:c r="C4" s="10" t="s"/>
-      <x:c r="D4" s="22" t="s">
+      <x:c r="D4" s="21" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="E4" s="22" t="s"/>
+      <x:c r="E4" s="21" t="s"/>
     </x:row>
     <x:row r="5" spans="1:10">
       <x:c r="A5" s="6" t="s"/>
-      <x:c r="B5" s="12" t="s"/>
+      <x:c r="B5" s="11" t="s"/>
       <x:c r="C5" s="10" t="s"/>
-      <x:c r="D5" s="13" t="s"/>
-      <x:c r="E5" s="13" t="s"/>
+      <x:c r="D5" s="12" t="s"/>
+      <x:c r="E5" s="12" t="s"/>
     </x:row>
     <x:row r="6" spans="1:10">
       <x:c r="A6" s="6" t="s"/>
@@ -1162,15 +1090,15 @@
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="6" t="s"/>
-      <x:c r="B7" s="19">
+      <x:c r="B7" s="18">
         <x:f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</x:f>
       </x:c>
-      <x:c r="C7" s="23" t="s">
+      <x:c r="C7" s="22" t="s">
         <x:v>11</x:v>
       </x:c>
-      <x:c r="D7" s="23" t="s"/>
-      <x:c r="E7" s="24" t="s"/>
-      <x:c r="F7" s="25" t="s">
+      <x:c r="D7" s="22" t="s"/>
+      <x:c r="E7" s="23" t="s"/>
+      <x:c r="F7" s="24" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G7" s="6" t="s"/>
@@ -1180,15 +1108,15 @@
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="6" t="s"/>
-      <x:c r="B8" s="19">
+      <x:c r="B8" s="18">
         <x:f>B7+1</x:f>
       </x:c>
-      <x:c r="C8" s="23" t="s">
+      <x:c r="C8" s="22" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="D8" s="23" t="s"/>
-      <x:c r="E8" s="24" t="s"/>
-      <x:c r="F8" s="25" t="s">
+      <x:c r="D8" s="22" t="s"/>
+      <x:c r="E8" s="23" t="s"/>
+      <x:c r="F8" s="24" t="s">
         <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="6" t="s"/>
@@ -1198,301 +1126,303 @@
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="6" t="s"/>
-      <x:c r="B9" s="19">
+      <x:c r="B9" s="18">
         <x:f>B8+1</x:f>
       </x:c>
-      <x:c r="C9" s="23" t="s">
+      <x:c r="C9" s="22" t="s">
         <x:v>15</x:v>
       </x:c>
-      <x:c r="D9" s="23" t="s"/>
-      <x:c r="E9" s="24" t="s"/>
-      <x:c r="F9" s="25" t="s"/>
+      <x:c r="D9" s="22" t="s"/>
+      <x:c r="E9" s="23" t="s"/>
+      <x:c r="F9" s="24" t="s"/>
       <x:c r="G9" s="6" t="s"/>
       <x:c r="H9" s="6" t="s"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="6" t="s"/>
-      <x:c r="B10" s="19">
+      <x:c r="B10" s="18">
         <x:f>B9+1</x:f>
       </x:c>
-      <x:c r="C10" s="23" t="s"/>
-      <x:c r="D10" s="23" t="s"/>
-      <x:c r="E10" s="24" t="s"/>
-      <x:c r="F10" s="25" t="s"/>
+      <x:c r="C10" s="22" t="s"/>
+      <x:c r="D10" s="22" t="s"/>
+      <x:c r="E10" s="23" t="s"/>
+      <x:c r="F10" s="24" t="s"/>
       <x:c r="G10" s="6" t="s"/>
       <x:c r="H10" s="6" t="s"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="6" t="s"/>
-      <x:c r="B11" s="19">
+      <x:c r="B11" s="18">
         <x:f>B10+1</x:f>
       </x:c>
-      <x:c r="C11" s="23" t="s"/>
-      <x:c r="D11" s="23" t="s"/>
-      <x:c r="E11" s="24" t="s"/>
-      <x:c r="F11" s="25" t="s"/>
+      <x:c r="C11" s="22" t="s"/>
+      <x:c r="D11" s="22" t="s"/>
+      <x:c r="E11" s="23" t="s"/>
+      <x:c r="F11" s="24" t="s"/>
       <x:c r="G11" s="6" t="s"/>
       <x:c r="H11" s="6" t="s"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="6" t="s"/>
-      <x:c r="B12" s="19">
+      <x:c r="B12" s="18">
         <x:f>B11+1</x:f>
       </x:c>
-      <x:c r="C12" s="23" t="s"/>
-      <x:c r="D12" s="23" t="s"/>
-      <x:c r="E12" s="24" t="s"/>
-      <x:c r="F12" s="25" t="s"/>
+      <x:c r="C12" s="22" t="s"/>
+      <x:c r="D12" s="22" t="s"/>
+      <x:c r="E12" s="23" t="s"/>
+      <x:c r="F12" s="24" t="s"/>
       <x:c r="G12" s="6" t="s"/>
       <x:c r="H12" s="6" t="s"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="6" t="s"/>
-      <x:c r="B13" s="19">
+      <x:c r="B13" s="18">
         <x:f>B12+1</x:f>
       </x:c>
-      <x:c r="C13" s="23" t="s"/>
-      <x:c r="D13" s="23" t="s"/>
-      <x:c r="E13" s="24" t="s"/>
-      <x:c r="F13" s="25" t="s"/>
+      <x:c r="C13" s="22" t="s"/>
+      <x:c r="D13" s="22" t="s"/>
+      <x:c r="E13" s="23" t="s"/>
+      <x:c r="F13" s="24" t="s"/>
       <x:c r="G13" s="6" t="s"/>
       <x:c r="H13" s="6" t="s"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="6" t="s"/>
-      <x:c r="B14" s="19">
+      <x:c r="B14" s="18">
         <x:f>B13+1</x:f>
       </x:c>
-      <x:c r="C14" s="23" t="s"/>
-      <x:c r="D14" s="23" t="s"/>
-      <x:c r="E14" s="24" t="s"/>
-      <x:c r="F14" s="25" t="s"/>
+      <x:c r="C14" s="22" t="s"/>
+      <x:c r="D14" s="22" t="s"/>
+      <x:c r="E14" s="23" t="s"/>
+      <x:c r="F14" s="24" t="s"/>
       <x:c r="G14" s="6" t="s"/>
       <x:c r="H14" s="6" t="s"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="6" t="s"/>
-      <x:c r="B15" s="19">
+      <x:c r="B15" s="18">
         <x:f>B14+1</x:f>
       </x:c>
-      <x:c r="C15" s="23" t="s"/>
-      <x:c r="D15" s="23" t="s"/>
-      <x:c r="E15" s="24" t="s"/>
-      <x:c r="F15" s="25" t="s"/>
+      <x:c r="C15" s="22" t="s"/>
+      <x:c r="D15" s="22" t="s"/>
+      <x:c r="E15" s="23" t="s"/>
+      <x:c r="F15" s="24" t="s"/>
       <x:c r="G15" s="6" t="s"/>
       <x:c r="H15" s="6" t="s"/>
     </x:row>
     <x:row r="16" spans="1:10">
       <x:c r="A16" s="6" t="s"/>
-      <x:c r="B16" s="19">
+      <x:c r="B16" s="18">
         <x:f>B15+1</x:f>
       </x:c>
-      <x:c r="C16" s="23" t="s"/>
-      <x:c r="D16" s="23" t="s"/>
-      <x:c r="E16" s="24" t="s"/>
-      <x:c r="F16" s="25" t="s"/>
+      <x:c r="C16" s="22" t="s"/>
+      <x:c r="D16" s="22" t="s"/>
+      <x:c r="E16" s="23" t="s"/>
+      <x:c r="F16" s="24" t="s"/>
       <x:c r="G16" s="6" t="s"/>
       <x:c r="H16" s="6" t="s"/>
     </x:row>
     <x:row r="17" spans="1:10">
       <x:c r="A17" s="6" t="s"/>
-      <x:c r="B17" s="19">
+      <x:c r="B17" s="18">
         <x:f>B16+1</x:f>
       </x:c>
-      <x:c r="C17" s="23" t="s"/>
-      <x:c r="D17" s="23" t="s"/>
-      <x:c r="E17" s="24" t="s"/>
-      <x:c r="F17" s="25" t="s"/>
+      <x:c r="C17" s="22" t="s"/>
+      <x:c r="D17" s="22" t="s"/>
+      <x:c r="E17" s="23" t="s"/>
+      <x:c r="F17" s="24" t="s"/>
       <x:c r="G17" s="6" t="s"/>
       <x:c r="H17" s="6" t="s"/>
     </x:row>
     <x:row r="18" spans="1:10">
       <x:c r="A18" s="6" t="s"/>
-      <x:c r="B18" s="19">
+      <x:c r="B18" s="18">
         <x:f>B17+1</x:f>
       </x:c>
-      <x:c r="C18" s="23" t="s"/>
-      <x:c r="D18" s="23" t="s"/>
-      <x:c r="E18" s="24" t="s"/>
-      <x:c r="F18" s="25" t="s"/>
+      <x:c r="C18" s="22" t="s"/>
+      <x:c r="D18" s="22" t="s"/>
+      <x:c r="E18" s="23" t="s"/>
+      <x:c r="F18" s="24" t="s"/>
       <x:c r="G18" s="6" t="s"/>
       <x:c r="H18" s="6" t="s"/>
     </x:row>
     <x:row r="19" spans="1:10">
       <x:c r="A19" s="6" t="s"/>
-      <x:c r="B19" s="19">
+      <x:c r="B19" s="18">
         <x:f>B18+1</x:f>
       </x:c>
-      <x:c r="C19" s="23" t="s"/>
-      <x:c r="D19" s="23" t="s"/>
-      <x:c r="E19" s="24" t="s"/>
-      <x:c r="F19" s="25" t="s"/>
+      <x:c r="C19" s="22" t="s"/>
+      <x:c r="D19" s="22" t="s"/>
+      <x:c r="E19" s="23" t="s"/>
+      <x:c r="F19" s="24" t="s"/>
       <x:c r="G19" s="6" t="s"/>
       <x:c r="H19" s="6" t="s"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="B20" s="19">
+      <x:c r="B20" s="18">
         <x:f>B19+1</x:f>
       </x:c>
-      <x:c r="C20" s="23" t="s"/>
-      <x:c r="D20" s="23" t="s"/>
-      <x:c r="E20" s="24" t="s"/>
-      <x:c r="F20" s="25" t="s"/>
+      <x:c r="C20" s="22" t="s"/>
+      <x:c r="D20" s="22" t="s"/>
+      <x:c r="E20" s="23" t="s"/>
+      <x:c r="F20" s="24" t="s"/>
       <x:c r="G20" s="6" t="s"/>
       <x:c r="H20" s="6" t="s"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="B21" s="19">
+      <x:c r="B21" s="18">
         <x:f>B20+1</x:f>
       </x:c>
-      <x:c r="C21" s="23" t="s"/>
-      <x:c r="D21" s="23" t="s"/>
-      <x:c r="E21" s="24" t="s"/>
-      <x:c r="F21" s="25" t="s"/>
+      <x:c r="C21" s="22" t="s"/>
+      <x:c r="D21" s="22" t="s"/>
+      <x:c r="E21" s="23" t="s"/>
+      <x:c r="F21" s="24" t="s"/>
       <x:c r="G21" s="6" t="s"/>
       <x:c r="H21" s="6" t="s"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="B22" s="19">
+      <x:c r="B22" s="18">
         <x:f>B21+1</x:f>
       </x:c>
-      <x:c r="C22" s="23" t="s"/>
-      <x:c r="D22" s="23" t="s"/>
-      <x:c r="E22" s="24" t="s"/>
-      <x:c r="F22" s="25" t="s"/>
+      <x:c r="C22" s="22" t="s"/>
+      <x:c r="D22" s="22" t="s"/>
+      <x:c r="E22" s="23" t="s"/>
+      <x:c r="F22" s="24" t="s"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="B23" s="19">
+      <x:c r="B23" s="18">
         <x:f>B22+1</x:f>
       </x:c>
-      <x:c r="C23" s="26" t="s"/>
-      <x:c r="D23" s="26" t="s"/>
-      <x:c r="E23" s="24" t="s"/>
-      <x:c r="F23" s="25" t="s"/>
+      <x:c r="C23" s="25" t="s"/>
+      <x:c r="D23" s="25" t="s"/>
+      <x:c r="E23" s="23" t="s"/>
+      <x:c r="F23" s="24" t="s"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="B24" s="19">
+      <x:c r="B24" s="18">
         <x:f>B23+1</x:f>
       </x:c>
-      <x:c r="C24" s="26" t="s"/>
-      <x:c r="D24" s="26" t="s"/>
-      <x:c r="E24" s="24" t="s"/>
-      <x:c r="F24" s="25" t="s"/>
+      <x:c r="C24" s="25" t="s"/>
+      <x:c r="D24" s="25" t="s"/>
+      <x:c r="E24" s="23" t="s"/>
+      <x:c r="F24" s="24" t="s"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="B25" s="19">
+      <x:c r="B25" s="18">
         <x:f>B24+1</x:f>
       </x:c>
-      <x:c r="C25" s="26" t="s"/>
-      <x:c r="D25" s="26" t="s"/>
-      <x:c r="E25" s="24" t="s"/>
-      <x:c r="F25" s="25" t="s"/>
+      <x:c r="C25" s="25" t="s"/>
+      <x:c r="D25" s="25" t="s"/>
+      <x:c r="E25" s="23" t="s"/>
+      <x:c r="F25" s="24" t="s"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="B26" s="19">
+      <x:c r="B26" s="18">
         <x:f>B25+1</x:f>
       </x:c>
-      <x:c r="C26" s="26" t="s"/>
-      <x:c r="D26" s="26" t="s"/>
-      <x:c r="E26" s="24" t="s"/>
-      <x:c r="F26" s="25" t="s"/>
+      <x:c r="C26" s="25" t="s"/>
+      <x:c r="D26" s="25" t="s"/>
+      <x:c r="E26" s="23" t="s"/>
+      <x:c r="F26" s="24" t="s"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="B27" s="19">
+      <x:c r="B27" s="18">
         <x:f>B26+1</x:f>
       </x:c>
-      <x:c r="C27" s="26" t="s"/>
-      <x:c r="D27" s="26" t="s"/>
-      <x:c r="E27" s="24" t="s"/>
-      <x:c r="F27" s="25" t="s"/>
+      <x:c r="C27" s="25" t="s"/>
+      <x:c r="D27" s="25" t="s"/>
+      <x:c r="E27" s="23" t="s"/>
+      <x:c r="F27" s="24" t="s"/>
     </x:row>
     <x:row r="28" spans="1:10">
-      <x:c r="B28" s="19">
+      <x:c r="B28" s="18">
         <x:f>B27+1</x:f>
       </x:c>
-      <x:c r="C28" s="26" t="s"/>
-      <x:c r="D28" s="26" t="s"/>
-      <x:c r="E28" s="24" t="s"/>
-      <x:c r="F28" s="25" t="s"/>
+      <x:c r="C28" s="25" t="s"/>
+      <x:c r="D28" s="25" t="s"/>
+      <x:c r="E28" s="23" t="s"/>
+      <x:c r="F28" s="24" t="s"/>
     </x:row>
     <x:row r="29" spans="1:10">
-      <x:c r="B29" s="19">
+      <x:c r="B29" s="18">
         <x:f>B28+1</x:f>
       </x:c>
-      <x:c r="C29" s="26" t="s"/>
-      <x:c r="D29" s="26" t="s"/>
-      <x:c r="E29" s="24" t="s"/>
-      <x:c r="F29" s="25" t="s"/>
+      <x:c r="C29" s="25" t="s"/>
+      <x:c r="D29" s="25" t="s"/>
+      <x:c r="E29" s="23" t="s"/>
+      <x:c r="F29" s="24" t="s"/>
     </x:row>
     <x:row r="30" spans="1:10">
-      <x:c r="B30" s="19">
+      <x:c r="B30" s="18">
         <x:f>B29+1</x:f>
       </x:c>
-      <x:c r="C30" s="26" t="s"/>
-      <x:c r="D30" s="26" t="s"/>
-      <x:c r="E30" s="24" t="s"/>
-      <x:c r="F30" s="25" t="s"/>
+      <x:c r="C30" s="25" t="s"/>
+      <x:c r="D30" s="25" t="s"/>
+      <x:c r="E30" s="23" t="s"/>
+      <x:c r="F30" s="24" t="s"/>
     </x:row>
     <x:row r="31" spans="1:10">
-      <x:c r="B31" s="19">
+      <x:c r="B31" s="18">
         <x:f>B30+1</x:f>
       </x:c>
-      <x:c r="C31" s="26" t="s"/>
-      <x:c r="D31" s="26" t="s"/>
-      <x:c r="E31" s="24" t="s"/>
-      <x:c r="F31" s="25" t="s"/>
+      <x:c r="C31" s="25" t="s"/>
+      <x:c r="D31" s="25" t="s"/>
+      <x:c r="E31" s="23" t="s"/>
+      <x:c r="F31" s="24" t="s"/>
     </x:row>
     <x:row r="32" spans="1:10">
-      <x:c r="B32" s="19">
+      <x:c r="B32" s="18">
         <x:f>B31+1</x:f>
       </x:c>
-      <x:c r="C32" s="26" t="s"/>
-      <x:c r="D32" s="26" t="s"/>
-      <x:c r="E32" s="24" t="s"/>
-      <x:c r="F32" s="25" t="s"/>
+      <x:c r="C32" s="25" t="s"/>
+      <x:c r="D32" s="25" t="s"/>
+      <x:c r="E32" s="23" t="s"/>
+      <x:c r="F32" s="24" t="s"/>
     </x:row>
     <x:row r="33" spans="1:10">
-      <x:c r="B33" s="19">
+      <x:c r="B33" s="18">
         <x:f>B32+1</x:f>
       </x:c>
-      <x:c r="C33" s="26" t="s"/>
-      <x:c r="D33" s="26" t="s"/>
-      <x:c r="E33" s="24" t="s"/>
-      <x:c r="F33" s="25" t="s"/>
+      <x:c r="C33" s="25" t="s"/>
+      <x:c r="D33" s="25" t="s"/>
+      <x:c r="E33" s="23" t="s"/>
+      <x:c r="F33" s="24" t="s"/>
     </x:row>
     <x:row r="34" spans="1:10">
-      <x:c r="B34" s="19">
+      <x:c r="B34" s="18">
         <x:f>B33+1</x:f>
       </x:c>
-      <x:c r="C34" s="26" t="s"/>
-      <x:c r="D34" s="26" t="s"/>
-      <x:c r="E34" s="24" t="s"/>
-      <x:c r="F34" s="25" t="s"/>
+      <x:c r="C34" s="25" t="s"/>
+      <x:c r="D34" s="25" t="s"/>
+      <x:c r="E34" s="23" t="s"/>
+      <x:c r="F34" s="24" t="s"/>
     </x:row>
     <x:row r="35" spans="1:10">
-      <x:c r="B35" s="19">
+      <x:c r="B35" s="18">
         <x:f>B34+1</x:f>
       </x:c>
-      <x:c r="C35" s="26" t="s"/>
-      <x:c r="D35" s="26" t="s"/>
-      <x:c r="E35" s="24" t="s"/>
-      <x:c r="F35" s="25" t="s"/>
+      <x:c r="C35" s="25" t="s"/>
+      <x:c r="D35" s="25" t="s"/>
+      <x:c r="E35" s="23" t="s"/>
+      <x:c r="F35" s="24" t="s"/>
     </x:row>
     <x:row r="36" spans="1:10">
-      <x:c r="B36" s="19">
+      <x:c r="B36" s="18">
         <x:f>B35+1</x:f>
       </x:c>
-      <x:c r="C36" s="26" t="s"/>
-      <x:c r="D36" s="26" t="s"/>
-      <x:c r="E36" s="24" t="s"/>
-      <x:c r="F36" s="25" t="s"/>
+      <x:c r="C36" s="25" t="s"/>
+      <x:c r="D36" s="25" t="s"/>
+      <x:c r="E36" s="23" t="s"/>
+      <x:c r="F36" s="24" t="s"/>
     </x:row>
     <x:row r="37" spans="1:10">
-      <x:c r="B37" s="11" t="s"/>
-      <x:c r="C37" s="26" t="s"/>
-      <x:c r="D37" s="26" t="s"/>
-      <x:c r="E37" s="24" t="s"/>
-      <x:c r="F37" s="25" t="s"/>
+      <x:c r="B37" s="18">
+        <x:f>B36+1</x:f>
+      </x:c>
+      <x:c r="C37" s="25" t="s"/>
+      <x:c r="D37" s="25" t="s"/>
+      <x:c r="E37" s="23" t="s"/>
+      <x:c r="F37" s="24" t="s"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="35">
@@ -1562,7 +1492,7 @@
   </x:sheetPr>
   <x:dimension ref="B1:S32"/>
   <x:sheetViews>
-    <x:sheetView workbookViewId="0">
+    <x:sheetView topLeftCell="A22" workbookViewId="0">
       <x:selection activeCell="H10" sqref="H10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1571,7 +1501,7 @@
     <x:col min="1" max="1" width="9.164062" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.832031" style="0" customWidth="1"/>
     <x:col min="3" max="4" width="9.164062" style="0" customWidth="1"/>
-    <x:col min="5" max="6" width="8.664062" style="18" customWidth="1"/>
+    <x:col min="5" max="6" width="8.664062" style="17" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:19">
@@ -1584,10 +1514,10 @@
       <x:c r="D1" s="0" t="s">
         <x:v>18</x:v>
       </x:c>
-      <x:c r="E1" s="18" t="s">
+      <x:c r="E1" s="17" t="s">
         <x:v>19</x:v>
       </x:c>
-      <x:c r="F1" s="18" t="s">
+      <x:c r="F1" s="17" t="s">
         <x:v>20</x:v>
       </x:c>
     </x:row>
@@ -1601,114 +1531,107 @@
       <x:c r="D2" s="0" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="E2" s="18" t="s">
+      <x:c r="E2" s="17" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="F2" s="18" t="s">
+      <x:c r="F2" s="17" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="H2" s="16" t="s"/>
-      <x:c r="I2" s="16" t="s"/>
-      <x:c r="J2" s="16" t="s"/>
-      <x:c r="K2" s="16" t="s"/>
-      <x:c r="L2" s="16" t="s"/>
-      <x:c r="M2" s="16" t="s"/>
-      <x:c r="N2" s="16" t="s"/>
+      <x:c r="H2" s="15" t="s"/>
+      <x:c r="I2" s="15" t="s"/>
+      <x:c r="J2" s="15" t="s"/>
+      <x:c r="K2" s="15" t="s"/>
+      <x:c r="L2" s="15" t="s"/>
+      <x:c r="M2" s="15" t="s"/>
+      <x:c r="N2" s="15" t="s"/>
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="B3" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E3" s="18" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F3" s="18" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="H3" s="16" t="s"/>
-      <x:c r="I3" s="16" t="s"/>
-      <x:c r="J3" s="16" t="s"/>
-      <x:c r="K3" s="16" t="s"/>
-      <x:c r="L3" s="16" t="s"/>
-      <x:c r="M3" s="16" t="s"/>
-      <x:c r="N3" s="16" t="s"/>
+      <x:c r="E3" s="17" t="s"/>
+      <x:c r="F3" s="17" t="s"/>
+      <x:c r="H3" s="15" t="s"/>
+      <x:c r="I3" s="15" t="s"/>
+      <x:c r="J3" s="15" t="s"/>
+      <x:c r="K3" s="15" t="s"/>
+      <x:c r="L3" s="15" t="s"/>
+      <x:c r="M3" s="15" t="s"/>
+      <x:c r="N3" s="15" t="s"/>
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D4" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E4" s="18" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="F4" s="18" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="H4" s="16" t="s"/>
-      <x:c r="I4" s="16" t="s"/>
-      <x:c r="J4" s="16" t="s"/>
-      <x:c r="K4" s="16" t="s"/>
-      <x:c r="L4" s="16" t="s"/>
-      <x:c r="M4" s="16" t="s"/>
-      <x:c r="N4" s="16" t="s"/>
-      <x:c r="R4" s="14" t="s"/>
-      <x:c r="S4" s="14" t="s"/>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E4" s="17" t="s"/>
+      <x:c r="F4" s="17" t="s"/>
+      <x:c r="H4" s="15" t="s"/>
+      <x:c r="I4" s="15" t="s"/>
+      <x:c r="J4" s="15" t="s"/>
+      <x:c r="K4" s="15" t="s"/>
+      <x:c r="L4" s="15" t="s"/>
+      <x:c r="M4" s="15" t="s"/>
+      <x:c r="N4" s="15" t="s"/>
+      <x:c r="R4" s="13" t="s"/>
+      <x:c r="S4" s="13" t="s"/>
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C5" s="0" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="D5" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E5" s="17" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D5" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E5" s="18" t="s">
+      <x:c r="F5" s="17" t="s">
         <x:v>34</x:v>
       </x:c>
-      <x:c r="F5" s="18" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="H5" s="16" t="s"/>
-      <x:c r="I5" s="16" t="s"/>
-      <x:c r="J5" s="16" t="s"/>
-      <x:c r="K5" s="16" t="s"/>
-      <x:c r="L5" s="16" t="s"/>
-      <x:c r="M5" s="16" t="s"/>
-      <x:c r="N5" s="16" t="s"/>
-      <x:c r="R5" s="14" t="s"/>
-      <x:c r="S5" s="14" t="s"/>
+      <x:c r="H5" s="15" t="s"/>
+      <x:c r="I5" s="15" t="s"/>
+      <x:c r="J5" s="15" t="s"/>
+      <x:c r="K5" s="15" t="s"/>
+      <x:c r="L5" s="15" t="s"/>
+      <x:c r="M5" s="15" t="s"/>
+      <x:c r="N5" s="15" t="s"/>
+      <x:c r="R5" s="13" t="s"/>
+      <x:c r="S5" s="13" t="s"/>
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E6" s="17" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
+      <x:c r="F6" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="E6" s="18" t="s"/>
-      <x:c r="F6" s="18" t="s"/>
-      <x:c r="H6" s="16" t="s"/>
-      <x:c r="I6" s="16" t="s"/>
-      <x:c r="J6" s="16" t="s"/>
-      <x:c r="K6" s="16" t="s"/>
-      <x:c r="L6" s="16" t="s"/>
-      <x:c r="M6" s="16" t="s"/>
-      <x:c r="N6" s="16" t="s"/>
-      <x:c r="R6" s="14" t="s"/>
-      <x:c r="S6" s="17" t="s"/>
+      <x:c r="H6" s="15" t="s"/>
+      <x:c r="I6" s="15" t="s"/>
+      <x:c r="J6" s="15" t="s"/>
+      <x:c r="K6" s="15" t="s"/>
+      <x:c r="L6" s="15" t="s"/>
+      <x:c r="M6" s="15" t="s"/>
+      <x:c r="N6" s="15" t="s"/>
+      <x:c r="R6" s="13" t="s"/>
+      <x:c r="S6" s="16" t="s"/>
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="B7" s="0" t="s">
@@ -1717,18 +1640,20 @@
       <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D7" s="14" t="s"/>
-      <x:c r="E7" s="18" t="s"/>
-      <x:c r="F7" s="18" t="s"/>
-      <x:c r="H7" s="16" t="s"/>
-      <x:c r="I7" s="16" t="s"/>
-      <x:c r="J7" s="16" t="s"/>
-      <x:c r="K7" s="16" t="s"/>
-      <x:c r="L7" s="16" t="s"/>
-      <x:c r="M7" s="16" t="s"/>
-      <x:c r="N7" s="16" t="s"/>
-      <x:c r="R7" s="14" t="s"/>
-      <x:c r="S7" s="14" t="s"/>
+      <x:c r="D7" s="13" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E7" s="17" t="s"/>
+      <x:c r="F7" s="17" t="s"/>
+      <x:c r="H7" s="15" t="s"/>
+      <x:c r="I7" s="15" t="s"/>
+      <x:c r="J7" s="15" t="s"/>
+      <x:c r="K7" s="15" t="s"/>
+      <x:c r="L7" s="15" t="s"/>
+      <x:c r="M7" s="15" t="s"/>
+      <x:c r="N7" s="15" t="s"/>
+      <x:c r="R7" s="13" t="s"/>
+      <x:c r="S7" s="13" t="s"/>
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="B8" s="0" t="s">
@@ -1738,379 +1663,370 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E8" s="18" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E8" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F8" s="18" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="H8" s="16" t="s"/>
-      <x:c r="I8" s="16" t="s"/>
-      <x:c r="J8" s="16" t="s"/>
-      <x:c r="K8" s="16" t="s"/>
-      <x:c r="L8" s="16" t="s"/>
-      <x:c r="M8" s="16" t="s"/>
-      <x:c r="N8" s="16" t="s"/>
+      <x:c r="F8" s="17" t="s"/>
+      <x:c r="H8" s="15" t="s"/>
+      <x:c r="I8" s="15" t="s"/>
+      <x:c r="J8" s="15" t="s"/>
+      <x:c r="K8" s="15" t="s"/>
+      <x:c r="L8" s="15" t="s"/>
+      <x:c r="M8" s="15" t="s"/>
+      <x:c r="N8" s="15" t="s"/>
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E9" s="18" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="F9" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E9" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F9" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E10" s="18" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F10" s="18" t="s">
-        <x:v>48</x:v>
-      </x:c>
+      <x:c r="E10" s="17" t="s"/>
+      <x:c r="F10" s="17" t="s"/>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D11" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E11" s="18" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="F11" s="18" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E11" s="17" t="s"/>
+      <x:c r="F11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E12" s="18" t="s"/>
-      <x:c r="F12" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D12" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E12" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F12" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E13" s="18" t="s"/>
-      <x:c r="F13" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D13" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E13" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F13" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E14" s="18" t="s"/>
-      <x:c r="F14" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D14" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E14" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F14" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E15" s="18" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F15" s="18" t="s">
-        <x:v>45</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E15" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F15" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E16" s="18" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F16" s="18" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E16" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F16" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D17" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E17" s="18" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="F17" s="18" t="s">
-        <x:v>61</x:v>
-      </x:c>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E17" s="17" t="s"/>
+      <x:c r="F17" s="17" t="s"/>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D18" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E18" s="18" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F18" s="18" t="s">
-        <x:v>32</x:v>
-      </x:c>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E18" s="17" t="s"/>
+      <x:c r="F18" s="17" t="s"/>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D19" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E19" s="18" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F19" s="18" t="s">
-        <x:v>65</x:v>
-      </x:c>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s"/>
+      <x:c r="F19" s="17" t="s"/>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E20" s="18" t="s"/>
-      <x:c r="F20" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F20" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E21" s="18" t="s"/>
-      <x:c r="F21" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F21" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E22" s="18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F22" s="18" t="s">
-        <x:v>58</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E22" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F22" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E23" s="18" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="F23" s="18" t="s">
-        <x:v>72</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E23" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F23" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D24" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E24" s="18" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="F24" s="18" t="s">
-        <x:v>45</x:v>
-      </x:c>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E24" s="17" t="s"/>
+      <x:c r="F24" s="17" t="s"/>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D25" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E25" s="18" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="F25" s="18" t="s">
-        <x:v>76</x:v>
-      </x:c>
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E25" s="17" t="s"/>
+      <x:c r="F25" s="17" t="s"/>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E26" s="18" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="F26" s="18" t="s">
-        <x:v>78</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E26" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F26" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>79</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="E27" s="18" t="s"/>
-      <x:c r="F27" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D27" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E27" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F27" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>80</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E28" s="18" t="s"/>
-      <x:c r="F28" s="18" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D28" s="0" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E28" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F28" s="17" t="s">
+        <x:v>34</x:v>
+      </x:c>
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>81</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E29" s="18" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="F29" s="18" t="s">
-        <x:v>82</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E29" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F29" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>83</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E30" s="18" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F30" s="18" t="s">
-        <x:v>84</x:v>
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="E30" s="17" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="F30" s="17" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>85</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D31" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="E31" s="18" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="F31" s="18" t="s">
-        <x:v>86</x:v>
-      </x:c>
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E31" s="17" t="s"/>
+      <x:c r="F31" s="17" t="s"/>
     </x:row>
     <x:row r="32" spans="1:19">
       <x:c r="B32" s="0" t="s">
-        <x:v>87</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E32" s="18" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="F32" s="18" t="s">
-        <x:v>88</x:v>
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E32" s="17" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="F32" s="17" t="s">
+        <x:v>67</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AF39A7-6F9A-4FED-ABFF-08BE4B39D2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8936B-8DEE-4F84-A34E-9CC8193D633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <x:si>
     <x:r>
       <x:rPr>
@@ -374,40 +374,64 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>23/09/01(金)</x:t>
+    <x:t>23/08/01(火)</x:t>
   </x:si>
   <x:si>
     <x:t>出勤</x:t>
   </x:si>
   <x:si>
+    <x:t>通常勤務</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:49</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:32</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/02(水)</x:t>
+  </x:si>
+  <x:si>
     <x:t>ﾃﾚﾜ9-18</x:t>
   </x:si>
   <x:si>
     <x:t>08:57</x:t>
   </x:si>
   <x:si>
-    <x:t>19:21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/02(土)</x:t>
+    <x:t>18:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/03(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/04(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:08</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/05(土)</x:t>
   </x:si>
   <x:si>
     <x:t>法定外休日</x:t>
   </x:si>
   <x:si>
-    <x:t>23/09/03(日)</x:t>
+    <x:t>23/08/06(日)</x:t>
   </x:si>
   <x:si>
     <x:t>法定休日</x:t>
   </x:si>
   <x:si>
-    <x:t>23/09/04(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>出勤、ﾃﾚ9-18</x:t>
-  </x:si>
-  <x:si>
-    <x:t>通常勤務</x:t>
+    <x:t>23/08/07(月)</x:t>
   </x:si>
   <x:si>
     <x:t>09:00</x:t>
@@ -416,100 +440,139 @@
     <x:t>18:00</x:t>
   </x:si>
   <x:si>
-    <x:t>23/09/05(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:53</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:41</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/06(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>夏季休暇</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/07(木)</x:t>
+    <x:t>23/08/08(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:44</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/09(水)</x:t>
   </x:si>
   <x:si>
     <x:t>08:54</x:t>
   </x:si>
   <x:si>
-    <x:t>23/09/08(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/09(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/10(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/11(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/12(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/13(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/14(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/15(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/16(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/17(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/18(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/19(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/20(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/21(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/22(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/23(土)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/24(日)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/25(月)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/26(火)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/27(水)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/28(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/29(金)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>23/09/30(土)</x:t>
+    <x:t>18:01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/10(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:43</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/11(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/12(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/13(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/14(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:58</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/15(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:09</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/16(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:52</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:30</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/17(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/18(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:07</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/19(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/20(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/21(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:55</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/22(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:48</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:33</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/23(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/24(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:51</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:47</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/25(金)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>19:35</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/26(土)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/27(日)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/28(月)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:46</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/29(火)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20:31</x:t>
+  </x:si>
+  <x:si>
+    <x:t>23/08/30(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:26</x:t>
   </x:si>
   <x:si>
     <x:t>23/08/31(木)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>08:55</x:t>
   </x:si>
   <x:si>
     <x:t>20:17</x:t>
@@ -1006,7 +1069,7 @@
   <x:dimension ref="A1:H37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="F4" sqref="F4"/>
+      <x:selection activeCell="C4" sqref="C4"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -1046,7 +1109,9 @@
       <x:c r="B3" s="11">
         <x:f>TODAY()</x:f>
       </x:c>
-      <x:c r="C3" s="20" t="s"/>
+      <x:c r="C3" s="20">
+        <x:v>45139</x:v>
+      </x:c>
       <x:c r="D3" s="21" t="s">
         <x:v>4</x:v>
       </x:c>
@@ -1550,10 +1615,17 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E3" s="17" t="s"/>
-      <x:c r="F3" s="17" t="s"/>
+      <x:c r="E3" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F3" s="17" t="s">
+        <x:v>29</x:v>
+      </x:c>
       <x:c r="H3" s="15" t="s"/>
       <x:c r="I3" s="15" t="s"/>
       <x:c r="J3" s="15" t="s"/>
@@ -1564,13 +1636,20 @@
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E4" s="17" t="s"/>
-      <x:c r="F4" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D4" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E4" s="17" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="F4" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
       <x:c r="H4" s="15" t="s"/>
       <x:c r="I4" s="15" t="s"/>
       <x:c r="J4" s="15" t="s"/>
@@ -1583,19 +1662,19 @@
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H5" s="15" t="s"/>
       <x:c r="I5" s="15" t="s"/>
@@ -1609,20 +1688,13 @@
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E6" s="17" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="F6" s="17" t="s">
         <x:v>37</x:v>
       </x:c>
+      <x:c r="E6" s="17" t="s"/>
+      <x:c r="F6" s="17" t="s"/>
       <x:c r="H6" s="15" t="s"/>
       <x:c r="I6" s="15" t="s"/>
       <x:c r="J6" s="15" t="s"/>
@@ -1640,9 +1712,7 @@
       <x:c r="C7" s="0" t="s">
         <x:v>39</x:v>
       </x:c>
-      <x:c r="D7" s="13" t="s">
-        <x:v>32</x:v>
-      </x:c>
+      <x:c r="D7" s="13" t="s"/>
       <x:c r="E7" s="17" t="s"/>
       <x:c r="F7" s="17" t="s"/>
       <x:c r="H7" s="15" t="s"/>
@@ -1663,12 +1733,14 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
         <x:v>41</x:v>
       </x:c>
-      <x:c r="F8" s="17" t="s"/>
+      <x:c r="F8" s="17" t="s">
+        <x:v>42</x:v>
+      </x:c>
       <x:c r="H8" s="15" t="s"/>
       <x:c r="I8" s="15" t="s"/>
       <x:c r="J8" s="15" t="s"/>
@@ -1679,354 +1751,361 @@
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D10" s="0" t="s">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="E10" s="17" t="s"/>
-      <x:c r="F10" s="17" t="s"/>
+      <x:c r="E10" s="17" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F10" s="17" t="s">
+        <x:v>48</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E11" s="17" t="s"/>
-      <x:c r="F11" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D11" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E11" s="17" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="F11" s="17" t="s">
+        <x:v>51</x:v>
+      </x:c>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D12" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E12" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F12" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E12" s="17" t="s"/>
+      <x:c r="F12" s="17" t="s"/>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E13" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F13" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E13" s="17" t="s"/>
+      <x:c r="F13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E14" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F14" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E14" s="17" t="s"/>
+      <x:c r="F14" s="17" t="s"/>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E15" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F15" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E16" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="F16" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E17" s="17" t="s"/>
-      <x:c r="F17" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E17" s="17" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F17" s="17" t="s">
+        <x:v>61</x:v>
+      </x:c>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E18" s="17" t="s"/>
-      <x:c r="F18" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E18" s="17" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F18" s="17" t="s">
+        <x:v>32</x:v>
+      </x:c>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E19" s="17" t="s"/>
-      <x:c r="F19" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E19" s="17" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F19" s="17" t="s">
+        <x:v>65</x:v>
+      </x:c>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D20" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E20" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F20" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E20" s="17" t="s"/>
+      <x:c r="F20" s="17" t="s"/>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D21" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E21" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F21" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E21" s="17" t="s"/>
+      <x:c r="F21" s="17" t="s"/>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E22" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F22" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E23" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="F23" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E24" s="17" t="s"/>
-      <x:c r="F24" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D24" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E24" s="17" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="F24" s="17" t="s">
+        <x:v>45</x:v>
+      </x:c>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>29</x:v>
-      </x:c>
-      <x:c r="E25" s="17" t="s"/>
-      <x:c r="F25" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D25" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E25" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="F25" s="17" t="s">
+        <x:v>76</x:v>
+      </x:c>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E26" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="F26" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>78</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D27" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E27" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F27" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="E27" s="17" t="s"/>
+      <x:c r="F27" s="17" t="s"/>
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D28" s="0" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="E28" s="17" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="F28" s="17" t="s">
-        <x:v>34</x:v>
-      </x:c>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="E28" s="17" t="s"/>
+      <x:c r="F28" s="17" t="s"/>
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E29" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F29" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>82</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E30" s="17" t="s">
-        <x:v>33</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="F30" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>84</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E31" s="17" t="s"/>
-      <x:c r="F31" s="17" t="s"/>
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D31" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E31" s="17" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="F31" s="17" t="s">
+        <x:v>86</x:v>
+      </x:c>
     </x:row>
     <x:row r="32" spans="1:19">
       <x:c r="B32" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C32" s="0" t="s">
         <x:v>22</x:v>
       </x:c>
       <x:c r="D32" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E32" s="17" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F32" s="17" t="s">
-        <x:v>67</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wang_ruiqi\Documents\UiPath\TKAutomation\事前設定\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E8936B-8DEE-4F84-A34E-9CC8193D633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB306DC-CAE2-4261-B889-5E9C314DC398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <x:bookViews>
     <x:workbookView xWindow="760" yWindow="760" windowWidth="14400" windowHeight="7360" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49151543-0F47-478A-8A79-3E5BF62E4081}"/>
   <x:bookViews>
-    <x:workbookView xWindow="910" yWindow="0" windowWidth="18290" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="1365" yWindow="-14955" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:r>
       <x:rPr>
@@ -228,10 +228,57 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>te3t</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
     <x:t>SJ-1部※SES-営業支援(原)</x:t>
   </x:si>
   <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>te3t</x:t>
+    </x:r>
+    <x:phoneticPr fontId="0"/>
+  </x:si>
+  <x:si>
+    <x:t>SJ-2部※SES-営業支援(原)</x:t>
+  </x:si>
+  <x:si>
     <x:t>（原振）カスタマーサービス部　ナビ作成代行９月分</x:t>
+  </x:si>
+  <x:si>
+    <x:t>te3t</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SJ-3部※SES-営業支援(原)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SJ-4部※SES-営業支援(原)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SJ-5部※SES-営業支援(原)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SJ-6部※SES-営業支援(原)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SJ-7部※SES-営業支援(原)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -374,6 +421,12 @@
     <x:t>23/09/06(水)</x:t>
   </x:si>
   <x:si>
+    <x:t>09:00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:00</x:t>
+  </x:si>
+  <x:si>
     <x:t>23/09/07(木)</x:t>
   </x:si>
   <x:si>
@@ -395,16 +448,22 @@
     <x:t>23/09/11(月)</x:t>
   </x:si>
   <x:si>
+    <x:t>18:49</x:t>
+  </x:si>
+  <x:si>
     <x:t>23/09/12(火)</x:t>
   </x:si>
   <x:si>
-    <x:t>09:00</x:t>
-  </x:si>
-  <x:si>
-    <x:t>18:00</x:t>
+    <x:t>08:50</x:t>
+  </x:si>
+  <x:si>
+    <x:t>18:20</x:t>
   </x:si>
   <x:si>
     <x:t>23/09/13(水)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:44</x:t>
   </x:si>
   <x:si>
     <x:t>23/09/14(木)</x:t>
@@ -952,7 +1011,7 @@
   <x:dimension ref="A1:H37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="H7" sqref="H7"/>
+      <x:selection activeCell="E12" sqref="E12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -1039,13 +1098,17 @@
       <x:c r="B7" s="18">
         <x:f>IF(C3="",DATE(YEAR(B3),MONTH(B3),1),DATE(YEAR(C3),MONTH(C3),1))</x:f>
       </x:c>
-      <x:c r="C7" s="22" t="s"/>
+      <x:c r="C7" s="22" t="s">
+        <x:v>11</x:v>
+      </x:c>
       <x:c r="D7" s="22" t="s"/>
       <x:c r="E7" s="23" t="s"/>
-      <x:c r="F7" s="24" t="s"/>
+      <x:c r="F7" s="24" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="G7" s="6" t="s"/>
       <x:c r="H7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:10">
@@ -1053,13 +1116,17 @@
       <x:c r="B8" s="18">
         <x:f>B7+1</x:f>
       </x:c>
-      <x:c r="C8" s="22" t="s"/>
+      <x:c r="C8" s="22" t="s">
+        <x:v>13</x:v>
+      </x:c>
       <x:c r="D8" s="22" t="s"/>
       <x:c r="E8" s="23" t="s"/>
-      <x:c r="F8" s="24" t="s"/>
+      <x:c r="F8" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
       <x:c r="G8" s="6" t="s"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -1067,10 +1134,14 @@
       <x:c r="B9" s="18">
         <x:f>B8+1</x:f>
       </x:c>
-      <x:c r="C9" s="22" t="s"/>
+      <x:c r="C9" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D9" s="22" t="s"/>
       <x:c r="E9" s="23" t="s"/>
-      <x:c r="F9" s="24" t="s"/>
+      <x:c r="F9" s="24" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="G9" s="6" t="s"/>
       <x:c r="H9" s="6" t="s"/>
     </x:row>
@@ -1079,10 +1150,14 @@
       <x:c r="B10" s="18">
         <x:f>B9+1</x:f>
       </x:c>
-      <x:c r="C10" s="22" t="s"/>
+      <x:c r="C10" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D10" s="22" t="s"/>
       <x:c r="E10" s="23" t="s"/>
-      <x:c r="F10" s="24" t="s"/>
+      <x:c r="F10" s="24" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="G10" s="6" t="s"/>
       <x:c r="H10" s="6" t="s"/>
     </x:row>
@@ -1091,10 +1166,14 @@
       <x:c r="B11" s="18">
         <x:f>B10+1</x:f>
       </x:c>
-      <x:c r="C11" s="22" t="s"/>
+      <x:c r="C11" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D11" s="22" t="s"/>
       <x:c r="E11" s="23" t="s"/>
-      <x:c r="F11" s="24" t="s"/>
+      <x:c r="F11" s="24" t="s">
+        <x:v>19</x:v>
+      </x:c>
       <x:c r="G11" s="6" t="s"/>
       <x:c r="H11" s="6" t="s"/>
     </x:row>
@@ -1103,10 +1182,14 @@
       <x:c r="B12" s="18">
         <x:f>B11+1</x:f>
       </x:c>
-      <x:c r="C12" s="22" t="s"/>
+      <x:c r="C12" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D12" s="22" t="s"/>
       <x:c r="E12" s="23" t="s"/>
-      <x:c r="F12" s="24" t="s"/>
+      <x:c r="F12" s="24" t="s">
+        <x:v>20</x:v>
+      </x:c>
       <x:c r="G12" s="6" t="s"/>
       <x:c r="H12" s="6" t="s"/>
     </x:row>
@@ -1115,10 +1198,14 @@
       <x:c r="B13" s="18">
         <x:f>B12+1</x:f>
       </x:c>
-      <x:c r="C13" s="22" t="s"/>
+      <x:c r="C13" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D13" s="22" t="s"/>
       <x:c r="E13" s="23" t="s"/>
-      <x:c r="F13" s="24" t="s"/>
+      <x:c r="F13" s="24" t="s">
+        <x:v>21</x:v>
+      </x:c>
       <x:c r="G13" s="6" t="s"/>
       <x:c r="H13" s="6" t="s"/>
     </x:row>
@@ -1127,7 +1214,9 @@
       <x:c r="B14" s="18">
         <x:f>B13+1</x:f>
       </x:c>
-      <x:c r="C14" s="22" t="s"/>
+      <x:c r="C14" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D14" s="22" t="s"/>
       <x:c r="E14" s="23" t="s"/>
       <x:c r="F14" s="24" t="s"/>
@@ -1426,7 +1515,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="B1:S8"/>
+  <x:dimension ref="B1:S31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0">
       <x:selection activeCell="H30" sqref="H30"/>
@@ -1442,33 +1531,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:19">
       <x:c r="B1" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="E1" s="17" t="s">
-        <x:v>16</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="F1" s="17" t="s">
-        <x:v>17</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:19">
       <x:c r="B2" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E2" s="17" t="s">
-        <x:v>21</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F2" s="17" t="s"/>
       <x:c r="H2" s="15" t="s"/>
@@ -1481,10 +1570,10 @@
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="B3" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E3" s="17" t="s"/>
       <x:c r="F3" s="17" t="s"/>
@@ -1498,10 +1587,10 @@
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E4" s="17" t="s"/>
       <x:c r="F4" s="17" t="s"/>
@@ -1517,19 +1606,19 @@
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>29</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H5" s="15" t="s"/>
       <x:c r="I5" s="15" t="s"/>
@@ -1543,19 +1632,19 @@
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H6" s="15" t="s"/>
       <x:c r="I6" s="15" t="s"/>
@@ -1569,18 +1658,20 @@
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="B7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="F7" s="17" t="s"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="F7" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
       <x:c r="H7" s="15" t="s"/>
       <x:c r="I7" s="15" t="s"/>
       <x:c r="J7" s="15" t="s"/>
@@ -1593,19 +1684,19 @@
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="B8" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H8" s="15" t="s"/>
       <x:c r="I8" s="15" t="s"/>
@@ -1617,329 +1708,329 @@
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C9" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="D9" s="0" t="s">
         <x:v>36</x:v>
       </x:c>
-      <x:c r="C9" s="0" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D9" s="0" t="s">
-        <x:v>27</x:v>
-      </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>28</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>48</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E10" s="17" t="s"/>
       <x:c r="F10" s="17" t="s"/>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="17" t="s"/>
       <x:c r="F11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E12" s="17" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="F12" s="17" t="s"/>
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F12" s="17" t="s">
+        <x:v>52</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E13" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F13" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E14" s="17" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="F14" s="17" t="s">
-        <x:v>43</x:v>
-      </x:c>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F14" s="17" t="s"/>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E15" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F15" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E16" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F16" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E17" s="17" t="s"/>
       <x:c r="F17" s="17" t="s"/>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E18" s="17" t="s"/>
       <x:c r="F18" s="17" t="s"/>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s"/>
       <x:c r="F19" s="17" t="s"/>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s"/>
       <x:c r="F20" s="17" t="s"/>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E21" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F21" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E22" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F22" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>54</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E23" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F23" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E24" s="17" t="s"/>
       <x:c r="F24" s="17" t="s"/>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E25" s="17" t="s"/>
       <x:c r="F25" s="17" t="s"/>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E26" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F26" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E27" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F27" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E28" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F28" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E29" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F29" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E30" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F30" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="E31" s="17" t="s"/>
       <x:c r="F31" s="17" t="s"/>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49151543-0F47-478A-8A79-3E5BF62E4081}"/>
   <x:bookViews>
-    <x:workbookView xWindow="1365" yWindow="-14955" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="330" yWindow="-11745" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <x:si>
     <x:r>
       <x:rPr>
@@ -466,7 +466,13 @@
     <x:t>08:44</x:t>
   </x:si>
   <x:si>
+    <x:t>18:06</x:t>
+  </x:si>
+  <x:si>
     <x:t>23/09/14(木)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>08:56</x:t>
   </x:si>
   <x:si>
     <x:t>23/09/15(金)</x:t>
@@ -1011,7 +1017,7 @@
   <x:dimension ref="A1:H37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="E12" sqref="E12"/>
+      <x:selection activeCell="E7" sqref="E7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -1790,11 +1796,13 @@
       <x:c r="E14" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F14" s="17" t="s"/>
+      <x:c r="F14" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
         <x:v>28</x:v>
@@ -1803,15 +1811,13 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="E15" s="17" t="s">
-        <x:v>43</x:v>
-      </x:c>
-      <x:c r="F15" s="17" t="s">
-        <x:v>44</x:v>
-      </x:c>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="F15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>28</x:v>
@@ -1828,7 +1834,7 @@
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>32</x:v>
@@ -1838,7 +1844,7 @@
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>34</x:v>
@@ -1848,7 +1854,7 @@
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>32</x:v>
@@ -1858,10 +1864,10 @@
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>36</x:v>
@@ -1871,7 +1877,7 @@
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>28</x:v>
@@ -1888,7 +1894,7 @@
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>28</x:v>
@@ -1905,7 +1911,7 @@
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>28</x:v>
@@ -1922,7 +1928,7 @@
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>32</x:v>
@@ -1932,7 +1938,7 @@
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>34</x:v>
@@ -1942,7 +1948,7 @@
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>28</x:v>
@@ -1959,7 +1965,7 @@
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>28</x:v>
@@ -1976,7 +1982,7 @@
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>28</x:v>
@@ -1993,7 +1999,7 @@
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>28</x:v>
@@ -2010,7 +2016,7 @@
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>28</x:v>
@@ -2027,7 +2033,7 @@
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>32</x:v>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{49151543-0F47-478A-8A79-3E5BF62E4081}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B93959BE-D859-40BC-9947-E26884B5E61C}"/>
   <x:bookViews>
     <x:workbookView xWindow="330" yWindow="-11745" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <x:si>
     <x:r>
       <x:rPr>
@@ -257,28 +257,10 @@
     <x:phoneticPr fontId="0"/>
   </x:si>
   <x:si>
-    <x:t>SJ-2部※SES-営業支援(原)</x:t>
-  </x:si>
-  <x:si>
     <x:t>（原振）カスタマーサービス部　ナビ作成代行９月分</x:t>
   </x:si>
   <x:si>
     <x:t>te3t</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SJ-3部※SES-営業支援(原)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SJ-4部※SES-営業支援(原)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SJ-5部※SES-営業支援(原)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SJ-6部※SES-営業支援(原)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SJ-7部※SES-営業支援(原)</x:t>
   </x:si>
   <x:si>
     <x:r>
@@ -1017,7 +999,7 @@
   <x:dimension ref="A1:H37"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <x:selection activeCell="E7" sqref="E7"/>
+      <x:selection activeCell="F12" sqref="F12"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="18"/>
@@ -1128,11 +1110,11 @@
       <x:c r="D8" s="22" t="s"/>
       <x:c r="E8" s="23" t="s"/>
       <x:c r="F8" s="24" t="s">
-        <x:v>14</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G8" s="6" t="s"/>
       <x:c r="H8" s="6" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:10">
@@ -1141,12 +1123,12 @@
         <x:f>B8+1</x:f>
       </x:c>
       <x:c r="C9" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D9" s="22" t="s"/>
       <x:c r="E9" s="23" t="s"/>
       <x:c r="F9" s="24" t="s">
-        <x:v>17</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G9" s="6" t="s"/>
       <x:c r="H9" s="6" t="s"/>
@@ -1157,12 +1139,12 @@
         <x:f>B9+1</x:f>
       </x:c>
       <x:c r="C10" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D10" s="22" t="s"/>
       <x:c r="E10" s="23" t="s"/>
       <x:c r="F10" s="24" t="s">
-        <x:v>18</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G10" s="6" t="s"/>
       <x:c r="H10" s="6" t="s"/>
@@ -1173,12 +1155,12 @@
         <x:f>B10+1</x:f>
       </x:c>
       <x:c r="C11" s="22" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D11" s="22" t="s"/>
       <x:c r="E11" s="23" t="s"/>
       <x:c r="F11" s="24" t="s">
-        <x:v>19</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="G11" s="6" t="s"/>
       <x:c r="H11" s="6" t="s"/>
@@ -1188,14 +1170,10 @@
       <x:c r="B12" s="18">
         <x:f>B11+1</x:f>
       </x:c>
-      <x:c r="C12" s="22" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="C12" s="22" t="s"/>
       <x:c r="D12" s="22" t="s"/>
       <x:c r="E12" s="23" t="s"/>
-      <x:c r="F12" s="24" t="s">
-        <x:v>20</x:v>
-      </x:c>
+      <x:c r="F12" s="24" t="s"/>
       <x:c r="G12" s="6" t="s"/>
       <x:c r="H12" s="6" t="s"/>
     </x:row>
@@ -1204,14 +1182,10 @@
       <x:c r="B13" s="18">
         <x:f>B12+1</x:f>
       </x:c>
-      <x:c r="C13" s="22" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="C13" s="22" t="s"/>
       <x:c r="D13" s="22" t="s"/>
       <x:c r="E13" s="23" t="s"/>
-      <x:c r="F13" s="24" t="s">
-        <x:v>21</x:v>
-      </x:c>
+      <x:c r="F13" s="24" t="s"/>
       <x:c r="G13" s="6" t="s"/>
       <x:c r="H13" s="6" t="s"/>
     </x:row>
@@ -1220,9 +1194,7 @@
       <x:c r="B14" s="18">
         <x:f>B13+1</x:f>
       </x:c>
-      <x:c r="C14" s="22" t="s">
-        <x:v>16</x:v>
-      </x:c>
+      <x:c r="C14" s="22" t="s"/>
       <x:c r="D14" s="22" t="s"/>
       <x:c r="E14" s="23" t="s"/>
       <x:c r="F14" s="24" t="s"/>
@@ -1537,33 +1509,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:19">
       <x:c r="B1" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="E1" s="17" t="s">
-        <x:v>25</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="F1" s="17" t="s">
-        <x:v>26</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:19">
       <x:c r="B2" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="E2" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F2" s="17" t="s"/>
       <x:c r="H2" s="15" t="s"/>
@@ -1576,10 +1548,10 @@
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="B3" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E3" s="17" t="s"/>
       <x:c r="F3" s="17" t="s"/>
@@ -1593,10 +1565,10 @@
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E4" s="17" t="s"/>
       <x:c r="F4" s="17" t="s"/>
@@ -1612,19 +1584,19 @@
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="H5" s="15" t="s"/>
       <x:c r="I5" s="15" t="s"/>
@@ -1638,19 +1610,19 @@
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H6" s="15" t="s"/>
       <x:c r="I6" s="15" t="s"/>
@@ -1664,19 +1636,19 @@
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="B7" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H7" s="15" t="s"/>
       <x:c r="I7" s="15" t="s"/>
@@ -1690,19 +1662,19 @@
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="B8" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H8" s="15" t="s"/>
       <x:c r="I8" s="15" t="s"/>
@@ -1714,329 +1686,329 @@
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E10" s="17" t="s"/>
       <x:c r="F10" s="17" t="s"/>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E11" s="17" t="s"/>
       <x:c r="F11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E12" s="17" t="s">
-        <x:v>30</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="F12" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>46</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E13" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F13" s="17" t="s">
-        <x:v>55</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E14" s="17" t="s">
-        <x:v>57</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F14" s="17" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E15" s="17" t="s">
-        <x:v>60</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E16" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F16" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E17" s="17" t="s"/>
       <x:c r="F17" s="17" t="s"/>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E18" s="17" t="s"/>
       <x:c r="F18" s="17" t="s"/>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s"/>
       <x:c r="F19" s="17" t="s"/>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s"/>
       <x:c r="F20" s="17" t="s"/>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E21" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F21" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E22" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F22" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E23" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F23" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E24" s="17" t="s"/>
       <x:c r="F24" s="17" t="s"/>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="E25" s="17" t="s"/>
       <x:c r="F25" s="17" t="s"/>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E26" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F26" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E27" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F27" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E28" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F28" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E29" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F29" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>76</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E30" s="17" t="s">
-        <x:v>43</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F30" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>77</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E31" s="17" t="s"/>
       <x:c r="F31" s="17" t="s"/>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tenda01-my.sharepoint.com/personal/ochiai_masashi_tenda_co_jp/Documents/ドキュメント/UiPath/TKAutomation/事前設定/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED6CDF63-34DC-468E-9687-F6FE6C5F996B}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A87EAEC-A3D2-46A5-A342-65877E194CAE}"/>
   <x:bookViews>
-    <x:workbookView xWindow="330" yWindow="-11745" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="6510" yWindow="-13755" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <x:si>
     <x:r>
       <x:rPr>
@@ -271,6 +271,42 @@
         <x:rFont val="Yu Gothic"/>
         <x:family val="2"/>
       </x:rPr>
+      <x:t>te3t</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>te3t</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
+      <x:t>te3t</x:t>
+    </x:r>
+  </x:si>
+  <x:si>
+    <x:r>
+      <x:rPr>
+        <x:vertAlign val="baseline"/>
+        <x:sz val="11"/>
+        <x:color theme="1"/>
+        <x:rFont val="Yu Gothic"/>
+        <x:family val="2"/>
+      </x:rPr>
       <x:t>日付</x:t>
     </x:r>
     <x:rPh sb="0" eb="2">
@@ -519,12 +555,20 @@
     <x:numFmt numFmtId="179" formatCode="hh:mm"/>
     <x:numFmt numFmtId="180" formatCode="yy/mm/dd\(aaa\)"/>
   </x:numFmts>
-  <x:fonts count="4">
+  <x:fonts count="5">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Yu Gothic"/>
       <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Yu Gothic"/>
+      <x:family val="2"/>
+      <x:charset val="128"/>
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
@@ -1138,7 +1182,9 @@
       <x:c r="B10" s="18">
         <x:f>B9+1</x:f>
       </x:c>
-      <x:c r="C10" s="22" t="s"/>
+      <x:c r="C10" s="22" t="s">
+        <x:v>16</x:v>
+      </x:c>
       <x:c r="D10" s="22" t="s"/>
       <x:c r="E10" s="23" t="s"/>
       <x:c r="F10" s="24" t="s">
@@ -1152,9 +1198,7 @@
       <x:c r="B11" s="18">
         <x:f>B10+1</x:f>
       </x:c>
-      <x:c r="C11" s="22" t="s">
-        <x:v>15</x:v>
-      </x:c>
+      <x:c r="C11" s="22" t="s"/>
       <x:c r="D11" s="22" t="s"/>
       <x:c r="E11" s="23" t="s"/>
       <x:c r="F11" s="24" t="s">
@@ -1168,7 +1212,9 @@
       <x:c r="B12" s="18">
         <x:f>B11+1</x:f>
       </x:c>
-      <x:c r="C12" s="22" t="s"/>
+      <x:c r="C12" s="22" t="s">
+        <x:v>17</x:v>
+      </x:c>
       <x:c r="D12" s="22" t="s"/>
       <x:c r="E12" s="23" t="s"/>
       <x:c r="F12" s="24" t="s"/>
@@ -1180,10 +1226,14 @@
       <x:c r="B13" s="18">
         <x:f>B12+1</x:f>
       </x:c>
-      <x:c r="C13" s="22" t="s"/>
+      <x:c r="C13" s="22" t="s">
+        <x:v>15</x:v>
+      </x:c>
       <x:c r="D13" s="22" t="s"/>
       <x:c r="E13" s="23" t="s"/>
-      <x:c r="F13" s="24" t="s"/>
+      <x:c r="F13" s="24" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="G13" s="6" t="s"/>
       <x:c r="H13" s="6" t="s"/>
     </x:row>
@@ -1192,10 +1242,14 @@
       <x:c r="B14" s="18">
         <x:f>B13+1</x:f>
       </x:c>
-      <x:c r="C14" s="22" t="s"/>
+      <x:c r="C14" s="22" t="s">
+        <x:v>18</x:v>
+      </x:c>
       <x:c r="D14" s="22" t="s"/>
       <x:c r="E14" s="23" t="s"/>
-      <x:c r="F14" s="24" t="s"/>
+      <x:c r="F14" s="24" t="s">
+        <x:v>12</x:v>
+      </x:c>
       <x:c r="G14" s="6" t="s"/>
       <x:c r="H14" s="6" t="s"/>
     </x:row>
@@ -1463,7 +1517,7 @@
     <x:mergeCell ref="C36:D36"/>
     <x:mergeCell ref="C37:D37"/>
   </x:mergeCells>
-  <x:phoneticPr fontId="1"/>
+  <x:phoneticPr fontId="2"/>
   <x:conditionalFormatting sqref="B7:F37">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>NOT(MONTH($B6)=MONTH($B$6))</x:formula>
@@ -1507,33 +1561,33 @@
   <x:sheetData>
     <x:row r="1" spans="1:19">
       <x:c r="B1" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="E1" s="17" t="s">
-        <x:v>19</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="F1" s="17" t="s">
-        <x:v>20</x:v>
+        <x:v>23</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:19">
       <x:c r="B2" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="E2" s="17" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F2" s="17" t="s"/>
       <x:c r="H2" s="15" t="s"/>
@@ -1546,10 +1600,10 @@
     </x:row>
     <x:row r="3" spans="1:19">
       <x:c r="B3" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C3" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E3" s="17" t="s"/>
       <x:c r="F3" s="17" t="s"/>
@@ -1563,10 +1617,10 @@
     </x:row>
     <x:row r="4" spans="1:19">
       <x:c r="B4" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E4" s="17" t="s"/>
       <x:c r="F4" s="17" t="s"/>
@@ -1582,19 +1636,19 @@
     </x:row>
     <x:row r="5" spans="1:19">
       <x:c r="B5" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E5" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F5" s="17" t="s">
-        <x:v>32</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="H5" s="15" t="s"/>
       <x:c r="I5" s="15" t="s"/>
@@ -1608,19 +1662,19 @@
     </x:row>
     <x:row r="6" spans="1:19">
       <x:c r="B6" s="0" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C6" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="D6" s="0" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="C6" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="D6" s="0" t="s">
-        <x:v>30</x:v>
-      </x:c>
       <x:c r="E6" s="17" t="s">
-        <x:v>34</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F6" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H6" s="15" t="s"/>
       <x:c r="I6" s="15" t="s"/>
@@ -1634,19 +1688,19 @@
     </x:row>
     <x:row r="7" spans="1:19">
       <x:c r="B7" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D7" s="13" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E7" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F7" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="H7" s="15" t="s"/>
       <x:c r="I7" s="15" t="s"/>
@@ -1660,19 +1714,19 @@
     </x:row>
     <x:row r="8" spans="1:19">
       <x:c r="B8" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E8" s="17" t="s">
-        <x:v>40</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F8" s="17" t="s">
-        <x:v>35</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="H8" s="15" t="s"/>
       <x:c r="I8" s="15" t="s"/>
@@ -1684,335 +1738,335 @@
     </x:row>
     <x:row r="9" spans="1:19">
       <x:c r="B9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E9" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="F9" s="17" t="s">
-        <x:v>42</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:19">
       <x:c r="B10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E10" s="17" t="s"/>
       <x:c r="F10" s="17" t="s"/>
     </x:row>
     <x:row r="11" spans="1:19">
       <x:c r="B11" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E11" s="17" t="s"/>
       <x:c r="F11" s="17" t="s"/>
     </x:row>
     <x:row r="12" spans="1:19">
       <x:c r="B12" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E12" s="17" t="s">
-        <x:v>24</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F12" s="17" t="s">
-        <x:v>46</x:v>
+        <x:v>49</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:19">
       <x:c r="B13" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C13" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D13" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E13" s="17" t="s">
-        <x:v>48</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F13" s="17" t="s">
-        <x:v>49</x:v>
+        <x:v>52</x:v>
       </x:c>
     </x:row>
     <x:row r="14" spans="1:19">
       <x:c r="B14" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="C14" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D14" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E14" s="17" t="s">
-        <x:v>51</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="F14" s="17" t="s">
-        <x:v>52</x:v>
+        <x:v>55</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:19">
       <x:c r="B15" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C15" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D15" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E15" s="17" t="s">
-        <x:v>54</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F15" s="17" t="s"/>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>55</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D16" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E16" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F16" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>56</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E17" s="17" t="s"/>
       <x:c r="F17" s="17" t="s"/>
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E18" s="17" t="s"/>
       <x:c r="F18" s="17" t="s"/>
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E19" s="17" t="s"/>
       <x:c r="F19" s="17" t="s"/>
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E20" s="17" t="s"/>
       <x:c r="F20" s="17" t="s"/>
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D21" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E21" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F21" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D22" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E22" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F22" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D23" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E23" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F23" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E24" s="17" t="s"/>
       <x:c r="F24" s="17" t="s"/>
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="E25" s="17" t="s"/>
       <x:c r="F25" s="17" t="s"/>
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D26" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E26" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F26" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D27" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E27" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F27" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D28" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E28" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F28" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D29" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E29" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F29" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="D30" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E30" s="17" t="s">
-        <x:v>37</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="F30" s="17" t="s">
-        <x:v>38</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="E31" s="17" t="s"/>
       <x:c r="F31" s="17" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:phoneticPr fontId="1"/>
+  <x:phoneticPr fontId="2"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>

--- a/事前設定/勤務情報&実績.xlsx
+++ b/事前設定/勤務情報&実績.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="23" documentId="6_{0F21981D-4791-45ED-87C0-6D9DBA5AA40A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1A87EAEC-A3D2-46A5-A342-65877E194CAE}"/>
   <x:bookViews>
-    <x:workbookView xWindow="6510" yWindow="-13755" windowWidth="19185" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="10200" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="勤務情報" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <x:si>
     <x:r>
       <x:rPr>
@@ -493,6 +493,9 @@
     <x:t>08:56</x:t>
   </x:si>
   <x:si>
+    <x:t>18:22</x:t>
+  </x:si>
+  <x:si>
     <x:t>23/09/15(金)</x:t>
   </x:si>
   <x:si>
@@ -555,20 +558,12 @@
     <x:numFmt numFmtId="179" formatCode="hh:mm"/>
     <x:numFmt numFmtId="180" formatCode="yy/mm/dd\(aaa\)"/>
   </x:numFmts>
-  <x:fonts count="5">
+  <x:fonts count="4">
     <x:font>
       <x:sz val="11"/>
       <x:color theme="1"/>
       <x:name val="Yu Gothic"/>
       <x:family val="2"/>
-      <x:scheme val="minor"/>
-    </x:font>
-    <x:font>
-      <x:sz val="11"/>
-      <x:color theme="1"/>
-      <x:name val="Yu Gothic"/>
-      <x:family val="2"/>
-      <x:charset val="128"/>
       <x:scheme val="minor"/>
     </x:font>
     <x:font>
@@ -1517,7 +1512,7 @@
     <x:mergeCell ref="C36:D36"/>
     <x:mergeCell ref="C37:D37"/>
   </x:mergeCells>
-  <x:phoneticPr fontId="2"/>
+  <x:phoneticPr fontId="1"/>
   <x:conditionalFormatting sqref="B7:F37">
     <x:cfRule type="expression" dxfId="0" priority="1" operator="equal">
       <x:formula>NOT(MONTH($B6)=MONTH($B$6))</x:formula>
@@ -1837,11 +1832,13 @@
       <x:c r="E15" s="17" t="s">
         <x:v>57</x:v>
       </x:c>
-      <x:c r="F15" s="17" t="s"/>
+      <x:c r="F15" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
     </x:row>
     <x:row r="16" spans="1:19">
       <x:c r="B16" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="C16" s="0" t="s">
         <x:v>25</x:v>
@@ -1850,15 +1847,13 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="E16" s="17" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="F16" s="17" t="s">
-        <x:v>41</x:v>
-      </x:c>
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="F16" s="17" t="s"/>
     </x:row>
     <x:row r="17" spans="1:19">
       <x:c r="B17" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C17" s="0" t="s">
         <x:v>29</x:v>
@@ -1868,7 +1863,7 @@
     </x:row>
     <x:row r="18" spans="1:19">
       <x:c r="B18" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C18" s="0" t="s">
         <x:v>31</x:v>
@@ -1878,7 +1873,7 @@
     </x:row>
     <x:row r="19" spans="1:19">
       <x:c r="B19" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C19" s="0" t="s">
         <x:v>29</x:v>
@@ -1888,10 +1883,10 @@
     </x:row>
     <x:row r="20" spans="1:19">
       <x:c r="B20" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C20" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D20" s="0" t="s">
         <x:v>33</x:v>
@@ -1901,7 +1896,7 @@
     </x:row>
     <x:row r="21" spans="1:19">
       <x:c r="B21" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C21" s="0" t="s">
         <x:v>25</x:v>
@@ -1918,7 +1913,7 @@
     </x:row>
     <x:row r="22" spans="1:19">
       <x:c r="B22" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C22" s="0" t="s">
         <x:v>25</x:v>
@@ -1935,7 +1930,7 @@
     </x:row>
     <x:row r="23" spans="1:19">
       <x:c r="B23" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C23" s="0" t="s">
         <x:v>25</x:v>
@@ -1952,7 +1947,7 @@
     </x:row>
     <x:row r="24" spans="1:19">
       <x:c r="B24" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C24" s="0" t="s">
         <x:v>29</x:v>
@@ -1962,7 +1957,7 @@
     </x:row>
     <x:row r="25" spans="1:19">
       <x:c r="B25" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="C25" s="0" t="s">
         <x:v>31</x:v>
@@ -1972,7 +1967,7 @@
     </x:row>
     <x:row r="26" spans="1:19">
       <x:c r="B26" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C26" s="0" t="s">
         <x:v>25</x:v>
@@ -1989,7 +1984,7 @@
     </x:row>
     <x:row r="27" spans="1:19">
       <x:c r="B27" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C27" s="0" t="s">
         <x:v>25</x:v>
@@ -2006,7 +2001,7 @@
     </x:row>
     <x:row r="28" spans="1:19">
       <x:c r="B28" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C28" s="0" t="s">
         <x:v>25</x:v>
@@ -2023,7 +2018,7 @@
     </x:row>
     <x:row r="29" spans="1:19">
       <x:c r="B29" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C29" s="0" t="s">
         <x:v>25</x:v>
@@ -2040,7 +2035,7 @@
     </x:row>
     <x:row r="30" spans="1:19">
       <x:c r="B30" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C30" s="0" t="s">
         <x:v>25</x:v>
@@ -2057,7 +2052,7 @@
     </x:row>
     <x:row r="31" spans="1:19">
       <x:c r="B31" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C31" s="0" t="s">
         <x:v>29</x:v>
@@ -2066,7 +2061,7 @@
       <x:c r="F31" s="17" t="s"/>
     </x:row>
   </x:sheetData>
-  <x:phoneticPr fontId="2"/>
+  <x:phoneticPr fontId="1"/>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
